--- a/xlsx/aerob-swim-500m.xlsx
+++ b/xlsx/aerob-swim-500m.xlsx
@@ -4741,9 +4741,9 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="B2:N77">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
-      <formula>B3</formula>
+  <conditionalFormatting sqref="B3:N78">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThanOrEqual">
+      <formula>B2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9117,9 +9117,9 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="B2:N77">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>B3</formula>
+  <conditionalFormatting sqref="B3:N78">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+      <formula>B2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/aerob-swim-500m.xlsx
+++ b/xlsx/aerob-swim-500m.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="540" windowWidth="27495" windowHeight="12210"/>
+    <workbookView xWindow="5820" yWindow="0" windowWidth="21570" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="lányok" sheetId="1" r:id="rId1"/>
@@ -84,6 +84,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -478,43 +481,43 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>27.54</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>25</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>22.38</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>20.41</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
         <v>19.03</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3">
         <v>17.39</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3">
         <v>17.579999999999998</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3">
         <v>16.57</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3">
         <v>21.3</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3">
         <v>25.45</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3">
         <v>32.049999999999997</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3">
         <v>42.33</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3">
         <v>42.51</v>
       </c>
     </row>
@@ -522,43 +525,43 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>27.24</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>24.35</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>22.18</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>20.239999999999998</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <v>18.489999999999998</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
         <v>17.27</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
         <v>17.45</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4">
         <v>16.46</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4">
         <v>21.17</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4">
         <v>25.25</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4">
         <v>31.35</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4">
         <v>41.4</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4">
         <v>41.57</v>
       </c>
     </row>
@@ -566,43 +569,43 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>26.54</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>24.12</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>21.59</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>20.079999999999998</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
         <v>18.350000000000001</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5">
         <v>17.14</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5">
         <v>17.329999999999998</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5">
         <v>16.34</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5">
         <v>20.59</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5">
         <v>25</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5">
         <v>30.56</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5">
         <v>40.32</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5">
         <v>41.06</v>
       </c>
     </row>
@@ -610,43 +613,43 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>26.26</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>23.49</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>21.4</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>19.52</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
         <v>18.21</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6">
         <v>17.03</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6">
         <v>17.2</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6">
         <v>16.239999999999998</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6">
         <v>20.46</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6">
         <v>24.41</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6">
         <v>30.27</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6">
         <v>39.44</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6">
         <v>40.159999999999997</v>
       </c>
     </row>
@@ -654,43 +657,43 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>25.58</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>23.26</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>21.21</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>19.36</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <v>18.079999999999998</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7">
         <v>16.510000000000002</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7">
         <v>17.09</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7">
         <v>16.13</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7">
         <v>20.29</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7">
         <v>24.17</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7">
         <v>29.51</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7">
         <v>38.43</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7">
         <v>39.28</v>
       </c>
     </row>
@@ -698,43 +701,43 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>25.32</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>23.05</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>21.03</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>19.21</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
         <v>17.55</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8">
         <v>16.399999999999999</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8">
         <v>16.57</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8">
         <v>16.03</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8">
         <v>20.12</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8">
         <v>23.54</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8">
         <v>29.16</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8">
         <v>37.44</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8">
         <v>38.43</v>
       </c>
     </row>
@@ -742,43 +745,43 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>25.06</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>22.44</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>20.46</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>19.059999999999999</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
         <v>17.420000000000002</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9">
         <v>16.29</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9">
         <v>16.46</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9">
         <v>15.58</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9">
         <v>20</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9">
         <v>23.37</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9">
         <v>28.51</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9">
         <v>37.020000000000003</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9">
         <v>37.58</v>
       </c>
     </row>
@@ -786,43 +789,43 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>24.41</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>22.23</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>20.29</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>18.52</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10">
         <v>17.3</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10">
         <v>16.18</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10">
         <v>16.34</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10">
         <v>15.42</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10">
         <v>19.440000000000001</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10">
         <v>23.15</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10">
         <v>28.18</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10">
         <v>36.090000000000003</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10">
         <v>37.159999999999997</v>
       </c>
     </row>
@@ -830,43 +833,43 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>24.17</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>22.04</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>20.12</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <v>18.38</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11">
         <v>17.170000000000002</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11">
         <v>16.079999999999998</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11">
         <v>16.239999999999998</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11">
         <v>15.33</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11">
         <v>19.329999999999998</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11">
         <v>22.59</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11">
         <v>27.47</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11">
         <v>35.18</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11">
         <v>36.35</v>
       </c>
     </row>
@@ -874,43 +877,43 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>23.54</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>21.44</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>19.559999999999999</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>18.239999999999998</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
         <v>17.059999999999999</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12">
         <v>15.57</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12">
         <v>16.13</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12">
         <v>15.23</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12">
         <v>19.18</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12">
         <v>22.38</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12">
         <v>27.24</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12">
         <v>34.409999999999997</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12">
         <v>35.56</v>
       </c>
     </row>
@@ -918,43 +921,43 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>23.32</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>21.26</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>19.399999999999999</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <v>18.11</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13">
         <v>16.54</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13">
         <v>15.47</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13">
         <v>16.03</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13">
         <v>15.14</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13">
         <v>19.03</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13">
         <v>22.18</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13">
         <v>26.54</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13">
         <v>33.54</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13">
         <v>35.18</v>
       </c>
     </row>
@@ -962,43 +965,43 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>23.1</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>21.08</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>19.25</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <v>17.579999999999998</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14">
         <v>16.43</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14">
         <v>15.37</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14">
         <v>15.52</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14">
         <v>15.05</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14">
         <v>18.52</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14">
         <v>22.04</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14">
         <v>26.33</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14">
         <v>33.200000000000003</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14">
         <v>34.409999999999997</v>
       </c>
     </row>
@@ -1006,43 +1009,43 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>22.49</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>20.5</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>19.100000000000001</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
         <v>17.45</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15">
         <v>16.32</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15">
         <v>15.28</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15">
         <v>15.42</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15">
         <v>14.56</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15">
         <v>18.38</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15">
         <v>21.44</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15">
         <v>26.05</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15">
         <v>32.369999999999997</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15">
         <v>34.049999999999997</v>
       </c>
     </row>
@@ -1050,43 +1053,43 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>22.28</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>20.329999999999998</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>18.559999999999999</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
         <v>17.329999999999998</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16">
         <v>16.21</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16">
         <v>15.18</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16">
         <v>15.37</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16">
         <v>14.51</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16">
         <v>18.28</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16">
         <v>21.3</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16">
         <v>25.38</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16">
         <v>31.55</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N16">
         <v>33.31</v>
       </c>
     </row>
@@ -1094,43 +1097,43 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>22.08</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>20.16</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>18.41</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>17.2</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17">
         <v>16.100000000000001</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17">
         <v>15.09</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17">
         <v>15.28</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17">
         <v>14.42</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17">
         <v>18.14</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17">
         <v>21.12</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17">
         <v>25.19</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17">
         <v>31.25</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N17">
         <v>32.58</v>
       </c>
     </row>
@@ -1138,43 +1141,43 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>21.49</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
         <v>20</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>18.28</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18">
         <v>17.09</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18">
         <v>16</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18">
         <v>15</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18">
         <v>15.18</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18">
         <v>14.34</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18">
         <v>18.010000000000002</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18">
         <v>20.54</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18">
         <v>24.54</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18">
         <v>30.46</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N18">
         <v>32.26</v>
       </c>
     </row>
@@ -1182,43 +1185,43 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>21.3</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>19.440000000000001</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
         <v>18.14</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19">
         <v>16.57</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19">
         <v>15.5</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19">
         <v>14.51</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19">
         <v>15.09</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19">
         <v>14.25</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19">
         <v>17.510000000000002</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19">
         <v>20.41</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19">
         <v>24.29</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19">
         <v>30.09</v>
       </c>
-      <c r="N19" s="1">
+      <c r="N19">
         <v>31.55</v>
       </c>
     </row>
@@ -1226,43 +1229,43 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>21.12</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>19.29</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
         <v>18.010000000000002</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20">
         <v>16.46</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20">
         <v>15.4</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20">
         <v>14.42</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20">
         <v>15</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20">
         <v>14.17</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20">
         <v>17.39</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20">
         <v>20.239999999999998</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20">
         <v>24.12</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20">
         <v>29.42</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N20">
         <v>31.25</v>
       </c>
     </row>
@@ -1270,43 +1273,43 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>20.54</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
         <v>19.14</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21">
         <v>17.48</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21">
         <v>16.34</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21">
         <v>15.3</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21">
         <v>14.34</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21">
         <v>14.51</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21">
         <v>14.09</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21">
         <v>17.27</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21">
         <v>20.079999999999998</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21">
         <v>23.49</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21">
         <v>29.08</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N21">
         <v>30.56</v>
       </c>
     </row>
@@ -1314,43 +1317,43 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>20.37</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22">
         <v>18.59</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <v>17.36</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22">
         <v>16.239999999999998</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22">
         <v>15.21</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22">
         <v>14.25</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22">
         <v>14.42</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22">
         <v>14.01</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22">
         <v>17.170000000000002</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22">
         <v>19.559999999999999</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22">
         <v>23.32</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22">
         <v>28.42</v>
       </c>
-      <c r="N22" s="1">
+      <c r="N22">
         <v>30.27</v>
       </c>
     </row>
@@ -1358,43 +1361,43 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <v>20.2</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23">
         <v>18.45</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23">
         <v>17.23</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23">
         <v>16.13</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23">
         <v>15.11</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23">
         <v>14.17</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23">
         <v>14.34</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23">
         <v>13.53</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23">
         <v>17.059999999999999</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23">
         <v>19.399999999999999</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23">
         <v>23.1</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23">
         <v>28.1</v>
       </c>
-      <c r="N23" s="1">
+      <c r="N23">
         <v>30</v>
       </c>
     </row>
@@ -1402,43 +1405,43 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <v>20.04</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24">
         <v>18.309999999999999</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24">
         <v>17.12</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24">
         <v>16.03</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24">
         <v>15.02</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24">
         <v>14.09</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24">
         <v>14.25</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24">
         <v>13.46</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24">
         <v>16.57</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24">
         <v>19.29</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24">
         <v>22.49</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24">
         <v>27.39</v>
       </c>
-      <c r="N24" s="1">
+      <c r="N24">
         <v>29.33</v>
       </c>
     </row>
@@ -1446,43 +1449,43 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>19.48</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
         <v>18.18</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25">
         <v>17</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25">
         <v>15.52</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25">
         <v>14.53</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25">
         <v>14.01</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25">
         <v>14.17</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25">
         <v>13.38</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25">
         <v>16.46</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25">
         <v>19.14</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25">
         <v>22.33</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25">
         <v>27.16</v>
       </c>
-      <c r="N25" s="1">
+      <c r="N25">
         <v>29.08</v>
       </c>
     </row>
@@ -1490,43 +1493,43 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>19.329999999999998</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>18.04</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26">
         <v>16.48</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26">
         <v>15.42</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26">
         <v>14.45</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26">
         <v>13.53</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26">
         <v>14.09</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26">
         <v>13.31</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26">
         <v>16.34</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26">
         <v>18.59</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26">
         <v>22.13</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26">
         <v>26.47</v>
       </c>
-      <c r="N26" s="1">
+      <c r="N26">
         <v>28.42</v>
       </c>
     </row>
@@ -1534,43 +1537,43 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>19.18</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27">
         <v>17.510000000000002</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27">
         <v>16.37</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27">
         <v>15.33</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27">
         <v>14.36</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27">
         <v>13.46</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27">
         <v>14.01</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27">
         <v>13.24</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27">
         <v>16.260000000000002</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27">
         <v>18.489999999999998</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27">
         <v>21.59</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27">
         <v>26.26</v>
       </c>
-      <c r="N27" s="1">
+      <c r="N27">
         <v>28.18</v>
       </c>
     </row>
@@ -1578,43 +1581,43 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>19.03</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28">
         <v>17.39</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28">
         <v>16.260000000000002</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28">
         <v>15.23</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28">
         <v>14.27</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28">
         <v>13.38</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28">
         <v>13.53</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28">
         <v>13.16</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28">
         <v>16.16</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28">
         <v>18.350000000000001</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28">
         <v>21.4</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28">
         <v>25.58</v>
       </c>
-      <c r="N28" s="1">
+      <c r="N28">
         <v>27.54</v>
       </c>
     </row>
@@ -1622,43 +1625,43 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
         <v>18.489999999999998</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29">
         <v>17.27</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29">
         <v>16.16</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29">
         <v>15.14</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29">
         <v>14.19</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29">
         <v>13.31</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29">
         <v>13.46</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29">
         <v>13.09</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29">
         <v>16.079999999999998</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29">
         <v>18.239999999999998</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29">
         <v>21.21</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29">
         <v>25.32</v>
       </c>
-      <c r="N29" s="1">
+      <c r="N29">
         <v>27.31</v>
       </c>
     </row>
@@ -1666,43 +1669,43 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30">
         <v>18.350000000000001</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
         <v>17.14</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30">
         <v>16.05</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30">
         <v>15.05</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30">
         <v>14.11</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30">
         <v>13.24</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30">
         <v>13.38</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30">
         <v>13.03</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30">
         <v>15.57</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30">
         <v>18.11</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30">
         <v>21.08</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30">
         <v>25.13</v>
       </c>
-      <c r="N30" s="1">
+      <c r="N30">
         <v>27.09</v>
       </c>
     </row>
@@ -1710,43 +1713,43 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
         <v>18.21</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31">
         <v>17.03</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31">
         <v>15.55</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31">
         <v>14.56</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31">
         <v>14.03</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31">
         <v>13.16</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31">
         <v>13.31</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31">
         <v>12.56</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31">
         <v>15.47</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31">
         <v>17.579999999999998</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31">
         <v>20.5</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31">
         <v>24.48</v>
       </c>
-      <c r="N31" s="1">
+      <c r="N31">
         <v>26.47</v>
       </c>
     </row>
@@ -1754,43 +1757,43 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32">
         <v>18.079999999999998</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32">
         <v>16.510000000000002</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32">
         <v>15.45</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32">
         <v>14.47</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32">
         <v>13.55</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32">
         <v>13.09</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32">
         <v>13.24</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32">
         <v>12.49</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32">
         <v>15.4</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32">
         <v>17.48</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32">
         <v>20.329999999999998</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32">
         <v>24.23</v>
       </c>
-      <c r="N32" s="1">
+      <c r="N32">
         <v>26.26</v>
       </c>
     </row>
@@ -1798,43 +1801,43 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33">
         <v>17.55</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33">
         <v>16.399999999999999</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33">
         <v>15.35</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33">
         <v>14.38</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33">
         <v>13.48</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33">
         <v>13.03</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33">
         <v>13.16</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33">
         <v>12.43</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J33">
         <v>15.3</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K33">
         <v>17.36</v>
       </c>
-      <c r="L33" s="1">
+      <c r="L33">
         <v>20.2</v>
       </c>
-      <c r="M33" s="1">
+      <c r="M33">
         <v>24.06</v>
       </c>
-      <c r="N33" s="1">
+      <c r="N33">
         <v>26.05</v>
       </c>
     </row>
@@ -1842,43 +1845,43 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
         <v>17.420000000000002</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34">
         <v>16.29</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34">
         <v>15.25</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34">
         <v>14.3</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34">
         <v>13.4</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34">
         <v>12.56</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34">
         <v>13.09</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34">
         <v>12.36</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J34">
         <v>15.23</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K34">
         <v>17.27</v>
       </c>
-      <c r="L34" s="1">
+      <c r="L34">
         <v>20.04</v>
       </c>
-      <c r="M34" s="1">
+      <c r="M34">
         <v>23.43</v>
       </c>
-      <c r="N34" s="1">
+      <c r="N34">
         <v>25.45</v>
       </c>
     </row>
@@ -1886,43 +1889,43 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35">
         <v>17.3</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35">
         <v>16.18</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35">
         <v>15.16</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35">
         <v>14.21</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35">
         <v>13.33</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35">
         <v>12.49</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35">
         <v>13.03</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35">
         <v>12.3</v>
       </c>
-      <c r="J35" s="1">
+      <c r="J35">
         <v>15.14</v>
       </c>
-      <c r="K35" s="1">
+      <c r="K35">
         <v>17.14</v>
       </c>
-      <c r="L35" s="1">
+      <c r="L35">
         <v>19.52</v>
       </c>
-      <c r="M35" s="1">
+      <c r="M35">
         <v>23.26</v>
       </c>
-      <c r="N35" s="1">
+      <c r="N35">
         <v>25.25</v>
       </c>
     </row>
@@ -1930,43 +1933,43 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36">
         <v>17.170000000000002</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36">
         <v>16.079999999999998</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36">
         <v>15.07</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36">
         <v>14.13</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36">
         <v>13.25</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36">
         <v>12.43</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36">
         <v>12.56</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36">
         <v>12.24</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J36">
         <v>15.05</v>
       </c>
-      <c r="K36" s="1">
+      <c r="K36">
         <v>17.03</v>
       </c>
-      <c r="L36" s="1">
+      <c r="L36">
         <v>19.36</v>
       </c>
-      <c r="M36" s="1">
+      <c r="M36">
         <v>23.05</v>
       </c>
-      <c r="N36" s="1">
+      <c r="N36">
         <v>25.06</v>
       </c>
     </row>
@@ -1974,43 +1977,43 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37">
         <v>17.059999999999999</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37">
         <v>15.57</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37">
         <v>14.58</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37">
         <v>14.05</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37">
         <v>13.18</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37">
         <v>12.36</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37">
         <v>12.46</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I37">
         <v>12.2</v>
       </c>
-      <c r="J37" s="1">
+      <c r="J37">
         <v>14.58</v>
       </c>
-      <c r="K37" s="1">
+      <c r="K37">
         <v>16.54</v>
       </c>
-      <c r="L37" s="1">
+      <c r="L37">
         <v>19.21</v>
       </c>
-      <c r="M37" s="1">
+      <c r="M37">
         <v>22.44</v>
       </c>
-      <c r="N37" s="1">
+      <c r="N37">
         <v>24.48</v>
       </c>
     </row>
@@ -2018,43 +2021,43 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38">
         <v>16.54</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38">
         <v>15.47</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38">
         <v>14.49</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38">
         <v>13.57</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38">
         <v>13.11</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38">
         <v>12.3</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38">
         <v>12.39</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I38">
         <v>12.15</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J38">
         <v>14.49</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K38">
         <v>16.43</v>
       </c>
-      <c r="L38" s="1">
+      <c r="L38">
         <v>19.100000000000001</v>
       </c>
-      <c r="M38" s="1">
+      <c r="M38">
         <v>22.28</v>
       </c>
-      <c r="N38" s="1">
+      <c r="N38">
         <v>24.29</v>
       </c>
     </row>
@@ -2062,43 +2065,43 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39">
         <v>16.43</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39">
         <v>15.37</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39">
         <v>14.4</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39">
         <v>13.49</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39">
         <v>13.04</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39">
         <v>12.24</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H39">
         <v>12.36</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I39">
         <v>12.09</v>
       </c>
-      <c r="J39" s="1">
+      <c r="J39">
         <v>14.42</v>
       </c>
-      <c r="K39" s="1">
+      <c r="K39">
         <v>16.34</v>
       </c>
-      <c r="L39" s="1">
+      <c r="L39">
         <v>18.559999999999999</v>
       </c>
-      <c r="M39" s="1">
+      <c r="M39">
         <v>22.08</v>
       </c>
-      <c r="N39" s="1">
+      <c r="N39">
         <v>24.12</v>
       </c>
     </row>
@@ -2106,43 +2109,43 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40">
         <v>16.32</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40">
         <v>15.28</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40">
         <v>14.32</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40">
         <v>13.42</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40">
         <v>12.58</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40">
         <v>12.18</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H40">
         <v>12.3</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40">
         <v>12.03</v>
       </c>
-      <c r="J40" s="1">
+      <c r="J40">
         <v>14.34</v>
       </c>
-      <c r="K40" s="1">
+      <c r="K40">
         <v>16.239999999999998</v>
       </c>
-      <c r="L40" s="1">
+      <c r="L40">
         <v>18.41</v>
       </c>
-      <c r="M40" s="1">
+      <c r="M40">
         <v>21.49</v>
       </c>
-      <c r="N40" s="1">
+      <c r="N40">
         <v>23.49</v>
       </c>
     </row>
@@ -2150,43 +2153,43 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41">
         <v>16.21</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41">
         <v>15.18</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41">
         <v>14.23</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41">
         <v>13.34</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41">
         <v>12.51</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41">
         <v>12.12</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H41">
         <v>12.24</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41">
         <v>11.57</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J41">
         <v>14.25</v>
       </c>
-      <c r="K41" s="1">
+      <c r="K41">
         <v>16.13</v>
       </c>
-      <c r="L41" s="1">
+      <c r="L41">
         <v>18.309999999999999</v>
       </c>
-      <c r="M41" s="1">
+      <c r="M41">
         <v>21.35</v>
       </c>
-      <c r="N41" s="1">
+      <c r="N41">
         <v>23.32</v>
       </c>
     </row>
@@ -2194,43 +2197,43 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42">
         <v>16.100000000000001</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42">
         <v>15.09</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42">
         <v>14.15</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42">
         <v>13.27</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42">
         <v>12.44</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42">
         <v>12.06</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42">
         <v>12.18</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I42">
         <v>11.51</v>
       </c>
-      <c r="J42" s="1">
+      <c r="J42">
         <v>14.19</v>
       </c>
-      <c r="K42" s="1">
+      <c r="K42">
         <v>16.05</v>
       </c>
-      <c r="L42" s="1">
+      <c r="L42">
         <v>18.18</v>
       </c>
-      <c r="M42" s="1">
+      <c r="M42">
         <v>21.17</v>
       </c>
-      <c r="N42" s="1">
+      <c r="N42">
         <v>23.15</v>
       </c>
     </row>
@@ -2238,43 +2241,43 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43">
         <v>16</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43">
         <v>15</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43">
         <v>14.07</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43">
         <v>13.2</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43">
         <v>12.38</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43">
         <v>12</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H43">
         <v>12.12</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I43">
         <v>11.46</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J43">
         <v>14.11</v>
       </c>
-      <c r="K43" s="1">
+      <c r="K43">
         <v>15.55</v>
       </c>
-      <c r="L43" s="1">
+      <c r="L43">
         <v>18.079999999999998</v>
       </c>
-      <c r="M43" s="1">
+      <c r="M43">
         <v>21.03</v>
       </c>
-      <c r="N43" s="1">
+      <c r="N43">
         <v>22.59</v>
       </c>
     </row>
@@ -2282,43 +2285,43 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44">
         <v>15.5</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44">
         <v>14.51</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44">
         <v>13.59</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44">
         <v>13.13</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44">
         <v>12.32</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44">
         <v>11.54</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H44">
         <v>12.06</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I44">
         <v>11.38</v>
       </c>
-      <c r="J44" s="1">
+      <c r="J44">
         <v>14.05</v>
       </c>
-      <c r="K44" s="1">
+      <c r="K44">
         <v>15.47</v>
       </c>
-      <c r="L44" s="1">
+      <c r="L44">
         <v>17.55</v>
       </c>
-      <c r="M44" s="1">
+      <c r="M44">
         <v>20.46</v>
       </c>
-      <c r="N44" s="1">
+      <c r="N44">
         <v>22.44</v>
       </c>
     </row>
@@ -2326,43 +2329,43 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45">
         <v>15.4</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45">
         <v>14.42</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45">
         <v>13.51</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45">
         <v>13.06</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45">
         <v>12.25</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45">
         <v>11.49</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H45">
         <v>12</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I45">
         <v>11.32</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J45">
         <v>13.57</v>
       </c>
-      <c r="K45" s="1">
+      <c r="K45">
         <v>15.37</v>
       </c>
-      <c r="L45" s="1">
+      <c r="L45">
         <v>17.420000000000002</v>
       </c>
-      <c r="M45" s="1">
+      <c r="M45">
         <v>20.29</v>
       </c>
-      <c r="N45" s="1">
+      <c r="N45">
         <v>22.28</v>
       </c>
     </row>
@@ -2370,43 +2373,43 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46">
         <v>15.3</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46">
         <v>14.34</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46">
         <v>13.44</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46">
         <v>12.59</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46">
         <v>12.19</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46">
         <v>11.43</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H46">
         <v>11.54</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I46">
         <v>11.27</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J46">
         <v>13.49</v>
       </c>
-      <c r="K46" s="1">
+      <c r="K46">
         <v>15.28</v>
       </c>
-      <c r="L46" s="1">
+      <c r="L46">
         <v>17.329999999999998</v>
       </c>
-      <c r="M46" s="1">
+      <c r="M46">
         <v>20.16</v>
       </c>
-      <c r="N46" s="1">
+      <c r="N46">
         <v>22.13</v>
       </c>
     </row>
@@ -2414,43 +2417,43 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47">
         <v>15.21</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47">
         <v>14.25</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47">
         <v>13.36</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47">
         <v>12.53</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47">
         <v>12.13</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47">
         <v>11.38</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47">
         <v>11.49</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I47">
         <v>11.22</v>
       </c>
-      <c r="J47" s="1">
+      <c r="J47">
         <v>13.44</v>
       </c>
-      <c r="K47" s="1">
+      <c r="K47">
         <v>15.21</v>
       </c>
-      <c r="L47" s="1">
+      <c r="L47">
         <v>17.2</v>
       </c>
-      <c r="M47" s="1">
+      <c r="M47">
         <v>20</v>
       </c>
-      <c r="N47" s="1">
+      <c r="N47">
         <v>21.59</v>
       </c>
     </row>
@@ -2458,43 +2461,43 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48">
         <v>15.11</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48">
         <v>14.17</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48">
         <v>13.29</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48">
         <v>12.46</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48">
         <v>12.07</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48">
         <v>11.32</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H48">
         <v>11.43</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I48">
         <v>11.19</v>
       </c>
-      <c r="J48" s="1">
+      <c r="J48">
         <v>13.36</v>
       </c>
-      <c r="K48" s="1">
+      <c r="K48">
         <v>15.11</v>
       </c>
-      <c r="L48" s="1">
+      <c r="L48">
         <v>17.12</v>
       </c>
-      <c r="M48" s="1">
+      <c r="M48">
         <v>19.48</v>
       </c>
-      <c r="N48" s="1">
+      <c r="N48">
         <v>21.44</v>
       </c>
     </row>
@@ -2502,43 +2505,43 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49">
         <v>15.02</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49">
         <v>14.09</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49">
         <v>13.22</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49">
         <v>12.39</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49">
         <v>12.01</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49">
         <v>11.27</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H49">
         <v>11.38</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I49">
         <v>11.14</v>
       </c>
-      <c r="J49" s="1">
+      <c r="J49">
         <v>13.31</v>
       </c>
-      <c r="K49" s="1">
+      <c r="K49">
         <v>15.05</v>
       </c>
-      <c r="L49" s="1">
+      <c r="L49">
         <v>17</v>
       </c>
-      <c r="M49" s="1">
+      <c r="M49">
         <v>19.329999999999998</v>
       </c>
-      <c r="N49" s="1">
+      <c r="N49">
         <v>21.3</v>
       </c>
     </row>
@@ -2546,43 +2549,43 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50">
         <v>14.53</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50">
         <v>14.01</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50">
         <v>13.15</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50">
         <v>12.33</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50">
         <v>11.56</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50">
         <v>11.22</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H50">
         <v>11.32</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I50">
         <v>11.09</v>
       </c>
-      <c r="J50" s="1">
+      <c r="J50">
         <v>13.24</v>
       </c>
-      <c r="K50" s="1">
+      <c r="K50">
         <v>14.56</v>
       </c>
-      <c r="L50" s="1">
+      <c r="L50">
         <v>16.48</v>
       </c>
-      <c r="M50" s="1">
+      <c r="M50">
         <v>19.18</v>
       </c>
-      <c r="N50" s="1">
+      <c r="N50">
         <v>21.17</v>
       </c>
     </row>
@@ -2590,43 +2593,43 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51">
         <v>14.45</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51">
         <v>13.53</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51">
         <v>13.08</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51">
         <v>12.27</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51">
         <v>11.5</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51">
         <v>11.17</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H51">
         <v>11.27</v>
       </c>
-      <c r="I51" s="1">
+      <c r="I51">
         <v>11.04</v>
       </c>
-      <c r="J51" s="1">
+      <c r="J51">
         <v>13.16</v>
       </c>
-      <c r="K51" s="1">
+      <c r="K51">
         <v>14.47</v>
       </c>
-      <c r="L51" s="1">
+      <c r="L51">
         <v>16.399999999999999</v>
       </c>
-      <c r="M51" s="1">
+      <c r="M51">
         <v>19.059999999999999</v>
       </c>
-      <c r="N51" s="1">
+      <c r="N51">
         <v>21.03</v>
       </c>
     </row>
@@ -2634,43 +2637,43 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52">
         <v>14.36</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52">
         <v>13.46</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52">
         <v>13.01</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52">
         <v>12.21</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52">
         <v>11.45</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G52">
         <v>11.12</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H52">
         <v>11.22</v>
       </c>
-      <c r="I52" s="1">
+      <c r="I52">
         <v>10.59</v>
       </c>
-      <c r="J52" s="1">
+      <c r="J52">
         <v>13.11</v>
       </c>
-      <c r="K52" s="1">
+      <c r="K52">
         <v>14.4</v>
       </c>
-      <c r="L52" s="1">
+      <c r="L52">
         <v>16.29</v>
       </c>
-      <c r="M52" s="1">
+      <c r="M52">
         <v>18.52</v>
       </c>
-      <c r="N52" s="1">
+      <c r="N52">
         <v>20.5</v>
       </c>
     </row>
@@ -2678,43 +2681,43 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53">
         <v>14.27</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53">
         <v>13.38</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53">
         <v>12.54</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53">
         <v>12.15</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53">
         <v>11.39</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G53">
         <v>11.07</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H53">
         <v>11.17</v>
       </c>
-      <c r="I53" s="1">
+      <c r="I53">
         <v>10.55</v>
       </c>
-      <c r="J53" s="1">
+      <c r="J53">
         <v>13.04</v>
       </c>
-      <c r="K53" s="1">
+      <c r="K53">
         <v>14.32</v>
       </c>
-      <c r="L53" s="1">
+      <c r="L53">
         <v>16.18</v>
       </c>
-      <c r="M53" s="1">
+      <c r="M53">
         <v>18.38</v>
       </c>
-      <c r="N53" s="1">
+      <c r="N53">
         <v>20.37</v>
       </c>
     </row>
@@ -2722,43 +2725,43 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54">
         <v>14.19</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54">
         <v>13.31</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54">
         <v>12.48</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54">
         <v>12.09</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54">
         <v>11.34</v>
       </c>
-      <c r="G54" s="1">
+      <c r="G54">
         <v>11.02</v>
       </c>
-      <c r="H54" s="1">
+      <c r="H54">
         <v>11.12</v>
       </c>
-      <c r="I54" s="1">
+      <c r="I54">
         <v>10.5</v>
       </c>
-      <c r="J54" s="1">
+      <c r="J54">
         <v>12.59</v>
       </c>
-      <c r="K54" s="1">
+      <c r="K54">
         <v>14.25</v>
       </c>
-      <c r="L54" s="1">
+      <c r="L54">
         <v>16.100000000000001</v>
       </c>
-      <c r="M54" s="1">
+      <c r="M54">
         <v>18.28</v>
       </c>
-      <c r="N54" s="1">
+      <c r="N54">
         <v>20.239999999999998</v>
       </c>
     </row>
@@ -2766,43 +2769,43 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55">
         <v>14.11</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55">
         <v>13.24</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55">
         <v>12.41</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55">
         <v>12.03</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55">
         <v>11.28</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G55">
         <v>10.57</v>
       </c>
-      <c r="H55" s="1">
+      <c r="H55">
         <v>11.07</v>
       </c>
-      <c r="I55" s="1">
+      <c r="I55">
         <v>10.45</v>
       </c>
-      <c r="J55" s="1">
+      <c r="J55">
         <v>12.53</v>
       </c>
-      <c r="K55" s="1">
+      <c r="K55">
         <v>14.17</v>
       </c>
-      <c r="L55" s="1">
+      <c r="L55">
         <v>16</v>
       </c>
-      <c r="M55" s="1">
+      <c r="M55">
         <v>18.14</v>
       </c>
-      <c r="N55" s="1">
+      <c r="N55">
         <v>20.12</v>
       </c>
     </row>
@@ -2810,43 +2813,43 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56">
         <v>14.03</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56">
         <v>13.16</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56">
         <v>12.35</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56">
         <v>11.57</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56">
         <v>11.23</v>
       </c>
-      <c r="G56" s="1">
+      <c r="G56">
         <v>10.52</v>
       </c>
-      <c r="H56" s="1">
+      <c r="H56">
         <v>11.02</v>
       </c>
-      <c r="I56" s="1">
+      <c r="I56">
         <v>10.41</v>
       </c>
-      <c r="J56" s="1">
+      <c r="J56">
         <v>12.46</v>
       </c>
-      <c r="K56" s="1">
+      <c r="K56">
         <v>14.09</v>
       </c>
-      <c r="L56" s="1">
+      <c r="L56">
         <v>15.52</v>
       </c>
-      <c r="M56" s="1">
+      <c r="M56">
         <v>18.04</v>
       </c>
-      <c r="N56" s="1">
+      <c r="N56">
         <v>20</v>
       </c>
     </row>
@@ -2854,43 +2857,43 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57">
         <v>13.55</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57">
         <v>13.09</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57">
         <v>12.28</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57">
         <v>11.51</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F57">
         <v>11.18</v>
       </c>
-      <c r="G57" s="1">
+      <c r="G57">
         <v>10.47</v>
       </c>
-      <c r="H57" s="1">
+      <c r="H57">
         <v>10.57</v>
       </c>
-      <c r="I57" s="1">
+      <c r="I57">
         <v>10.36</v>
       </c>
-      <c r="J57" s="1">
+      <c r="J57">
         <v>12.41</v>
       </c>
-      <c r="K57" s="1">
+      <c r="K57">
         <v>14.03</v>
       </c>
-      <c r="L57" s="1">
+      <c r="L57">
         <v>15.42</v>
       </c>
-      <c r="M57" s="1">
+      <c r="M57">
         <v>17.510000000000002</v>
       </c>
-      <c r="N57" s="1">
+      <c r="N57">
         <v>19.48</v>
       </c>
     </row>
@@ -2898,43 +2901,43 @@
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58">
         <v>13.48</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58">
         <v>13.03</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58">
         <v>12.22</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58">
         <v>11.46</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F58">
         <v>11.13</v>
       </c>
-      <c r="G58" s="1">
+      <c r="G58">
         <v>10.43</v>
       </c>
-      <c r="H58" s="1">
+      <c r="H58">
         <v>10.52</v>
       </c>
-      <c r="I58" s="1">
+      <c r="I58">
         <v>10.32</v>
       </c>
-      <c r="J58" s="1">
+      <c r="J58">
         <v>12.35</v>
       </c>
-      <c r="K58" s="1">
+      <c r="K58">
         <v>13.55</v>
       </c>
-      <c r="L58" s="1">
+      <c r="L58">
         <v>15.33</v>
       </c>
-      <c r="M58" s="1">
+      <c r="M58">
         <v>17.39</v>
       </c>
-      <c r="N58" s="1">
+      <c r="N58">
         <v>19.36</v>
       </c>
     </row>
@@ -2942,43 +2945,43 @@
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59">
         <v>13.4</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59">
         <v>12.56</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59">
         <v>12.16</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59">
         <v>11.4</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F59">
         <v>11.08</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G59">
         <v>10.38</v>
       </c>
-      <c r="H59" s="1">
+      <c r="H59">
         <v>10.47</v>
       </c>
-      <c r="I59" s="1">
+      <c r="I59">
         <v>10.27</v>
       </c>
-      <c r="J59" s="1">
+      <c r="J59">
         <v>12.28</v>
       </c>
-      <c r="K59" s="1">
+      <c r="K59">
         <v>13.48</v>
       </c>
-      <c r="L59" s="1">
+      <c r="L59">
         <v>15.25</v>
       </c>
-      <c r="M59" s="1">
+      <c r="M59">
         <v>17.3</v>
       </c>
-      <c r="N59" s="1">
+      <c r="N59">
         <v>19.25</v>
       </c>
     </row>
@@ -2986,43 +2989,43 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60">
         <v>13.33</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60">
         <v>12.49</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60">
         <v>12.1</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60">
         <v>11.35</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F60">
         <v>11.03</v>
       </c>
-      <c r="G60" s="1">
+      <c r="G60">
         <v>10.34</v>
       </c>
-      <c r="H60" s="1">
+      <c r="H60">
         <v>10.43</v>
       </c>
-      <c r="I60" s="1">
+      <c r="I60">
         <v>10.23</v>
       </c>
-      <c r="J60" s="1">
+      <c r="J60">
         <v>12.24</v>
       </c>
-      <c r="K60" s="1">
+      <c r="K60">
         <v>13.42</v>
       </c>
-      <c r="L60" s="1">
+      <c r="L60">
         <v>15.16</v>
       </c>
-      <c r="M60" s="1">
+      <c r="M60">
         <v>17.170000000000002</v>
       </c>
-      <c r="N60" s="1">
+      <c r="N60">
         <v>19.14</v>
       </c>
     </row>
@@ -3030,43 +3033,43 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61">
         <v>13.25</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61">
         <v>12.43</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61">
         <v>12.04</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61">
         <v>11.3</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F61">
         <v>10.58</v>
       </c>
-      <c r="G61" s="1">
+      <c r="G61">
         <v>10.29</v>
       </c>
-      <c r="H61" s="1">
+      <c r="H61">
         <v>10.38</v>
       </c>
-      <c r="I61" s="1">
+      <c r="I61">
         <v>10.19</v>
       </c>
-      <c r="J61" s="1">
+      <c r="J61">
         <v>12.18</v>
       </c>
-      <c r="K61" s="1">
+      <c r="K61">
         <v>13.34</v>
       </c>
-      <c r="L61" s="1">
+      <c r="L61">
         <v>15.09</v>
       </c>
-      <c r="M61" s="1">
+      <c r="M61">
         <v>17.09</v>
       </c>
-      <c r="N61" s="1">
+      <c r="N61">
         <v>19.03</v>
       </c>
     </row>
@@ -3074,43 +3077,43 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62">
         <v>13.18</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62">
         <v>12.36</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62">
         <v>11.59</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62">
         <v>11.24</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62">
         <v>10.53</v>
       </c>
-      <c r="G62" s="1">
+      <c r="G62">
         <v>10.25</v>
       </c>
-      <c r="H62" s="1">
+      <c r="H62">
         <v>10.34</v>
       </c>
-      <c r="I62" s="1">
+      <c r="I62">
         <v>10.14</v>
       </c>
-      <c r="J62" s="1">
+      <c r="J62">
         <v>12.13</v>
       </c>
-      <c r="K62" s="1">
+      <c r="K62">
         <v>13.29</v>
       </c>
-      <c r="L62" s="1">
+      <c r="L62">
         <v>15</v>
       </c>
-      <c r="M62" s="1">
+      <c r="M62">
         <v>16.57</v>
       </c>
-      <c r="N62" s="1">
+      <c r="N62">
         <v>18.52</v>
       </c>
     </row>
@@ -3118,43 +3121,43 @@
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63">
         <v>13.11</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63">
         <v>12.3</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63">
         <v>11.53</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63">
         <v>11.19</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F63">
         <v>10.49</v>
       </c>
-      <c r="G63" s="1">
+      <c r="G63">
         <v>10.210000000000001</v>
       </c>
-      <c r="H63" s="1">
+      <c r="H63">
         <v>10.29</v>
       </c>
-      <c r="I63" s="1">
+      <c r="I63">
         <v>10.1</v>
       </c>
-      <c r="J63" s="1">
+      <c r="J63">
         <v>12.07</v>
       </c>
-      <c r="K63" s="1">
+      <c r="K63">
         <v>13.22</v>
       </c>
-      <c r="L63" s="1">
+      <c r="L63">
         <v>14.51</v>
       </c>
-      <c r="M63" s="1">
+      <c r="M63">
         <v>16.46</v>
       </c>
-      <c r="N63" s="1">
+      <c r="N63">
         <v>18.41</v>
       </c>
     </row>
@@ -3162,43 +3165,43 @@
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64">
         <v>13.04</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64">
         <v>12.24</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64">
         <v>11.47</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64">
         <v>11.14</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F64">
         <v>10.44</v>
       </c>
-      <c r="G64" s="1">
+      <c r="G64">
         <v>10.16</v>
       </c>
-      <c r="H64" s="1">
+      <c r="H64">
         <v>10.25</v>
       </c>
-      <c r="I64" s="1">
+      <c r="I64">
         <v>10.06</v>
       </c>
-      <c r="J64" s="1">
+      <c r="J64">
         <v>12.01</v>
       </c>
-      <c r="K64" s="1">
+      <c r="K64">
         <v>13.15</v>
       </c>
-      <c r="L64" s="1">
+      <c r="L64">
         <v>14.45</v>
       </c>
-      <c r="M64" s="1">
+      <c r="M64">
         <v>16.37</v>
       </c>
-      <c r="N64" s="1">
+      <c r="N64">
         <v>18.309999999999999</v>
       </c>
     </row>
@@ -3206,43 +3209,43 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65">
         <v>12.58</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65">
         <v>12.18</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65">
         <v>11.42</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65">
         <v>11.09</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F65">
         <v>10.39</v>
       </c>
-      <c r="G65" s="1">
+      <c r="G65">
         <v>10.119999999999999</v>
       </c>
-      <c r="H65" s="1">
+      <c r="H65">
         <v>10.210000000000001</v>
       </c>
-      <c r="I65" s="1">
+      <c r="I65">
         <v>10.02</v>
       </c>
-      <c r="J65" s="1">
+      <c r="J65">
         <v>11.57</v>
       </c>
-      <c r="K65" s="1">
+      <c r="K65">
         <v>13.09</v>
       </c>
-      <c r="L65" s="1">
+      <c r="L65">
         <v>14.36</v>
       </c>
-      <c r="M65" s="1">
+      <c r="M65">
         <v>16.260000000000002</v>
       </c>
-      <c r="N65" s="1">
+      <c r="N65">
         <v>18.21</v>
       </c>
     </row>
@@ -3250,43 +3253,43 @@
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66">
         <v>12.51</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66">
         <v>12.12</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66">
         <v>11.36</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66">
         <v>11.04</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F66">
         <v>10.35</v>
       </c>
-      <c r="G66" s="1">
+      <c r="G66">
         <v>10.08</v>
       </c>
-      <c r="H66" s="1">
+      <c r="H66">
         <v>10.16</v>
       </c>
-      <c r="I66" s="1">
+      <c r="I66">
         <v>9.58</v>
       </c>
-      <c r="J66" s="1">
+      <c r="J66">
         <v>11.51</v>
       </c>
-      <c r="K66" s="1">
+      <c r="K66">
         <v>13.03</v>
       </c>
-      <c r="L66" s="1">
+      <c r="L66">
         <v>14.27</v>
       </c>
-      <c r="M66" s="1">
+      <c r="M66">
         <v>16.16</v>
       </c>
-      <c r="N66" s="1">
+      <c r="N66">
         <v>18.11</v>
       </c>
     </row>
@@ -3294,43 +3297,43 @@
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67">
         <v>12.44</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67">
         <v>12.06</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67">
         <v>11.31</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67">
         <v>10.59</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F67">
         <v>10.3</v>
       </c>
-      <c r="G67" s="1">
+      <c r="G67">
         <v>10.039999999999999</v>
       </c>
-      <c r="H67" s="1">
+      <c r="H67">
         <v>10.119999999999999</v>
       </c>
-      <c r="I67" s="1">
+      <c r="I67">
         <v>9.5399999999999991</v>
       </c>
-      <c r="J67" s="1">
+      <c r="J67">
         <v>11.47</v>
       </c>
-      <c r="K67" s="1">
+      <c r="K67">
         <v>12.58</v>
       </c>
-      <c r="L67" s="1">
+      <c r="L67">
         <v>14.21</v>
       </c>
-      <c r="M67" s="1">
+      <c r="M67">
         <v>16.079999999999998</v>
       </c>
-      <c r="N67" s="1">
+      <c r="N67">
         <v>18.010000000000002</v>
       </c>
     </row>
@@ -3338,43 +3341,43 @@
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68">
         <v>12.38</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68">
         <v>12</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68">
         <v>11.26</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E68">
         <v>10.55</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F68">
         <v>10.26</v>
       </c>
-      <c r="G68" s="1">
+      <c r="G68">
         <v>10</v>
       </c>
-      <c r="H68" s="1">
+      <c r="H68">
         <v>10.08</v>
       </c>
-      <c r="I68" s="1">
+      <c r="I68">
         <v>9.5</v>
       </c>
-      <c r="J68" s="1">
+      <c r="J68">
         <v>11.42</v>
       </c>
-      <c r="K68" s="1">
+      <c r="K68">
         <v>12.51</v>
       </c>
-      <c r="L68" s="1">
+      <c r="L68">
         <v>14.13</v>
       </c>
-      <c r="M68" s="1">
+      <c r="M68">
         <v>15.57</v>
       </c>
-      <c r="N68" s="1">
+      <c r="N68">
         <v>17.510000000000002</v>
       </c>
     </row>
@@ -3382,43 +3385,43 @@
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69">
         <v>12.32</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69">
         <v>11.54</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69">
         <v>11.21</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E69">
         <v>10.5</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F69">
         <v>10.220000000000001</v>
       </c>
-      <c r="G69" s="1">
+      <c r="G69">
         <v>9.56</v>
       </c>
-      <c r="H69" s="1">
+      <c r="H69">
         <v>10.039999999999999</v>
       </c>
-      <c r="I69" s="1">
+      <c r="I69">
         <v>9.4600000000000009</v>
       </c>
-      <c r="J69" s="1">
+      <c r="J69">
         <v>11.36</v>
       </c>
-      <c r="K69" s="1">
+      <c r="K69">
         <v>12.44</v>
       </c>
-      <c r="L69" s="1">
+      <c r="L69">
         <v>14.07</v>
       </c>
-      <c r="M69" s="1">
+      <c r="M69">
         <v>15.5</v>
       </c>
-      <c r="N69" s="1">
+      <c r="N69">
         <v>17.420000000000002</v>
       </c>
     </row>
@@ -3426,43 +3429,43 @@
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70">
         <v>12.25</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70">
         <v>11.49</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70">
         <v>11.15</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E70">
         <v>10.45</v>
       </c>
-      <c r="F70" s="1">
+      <c r="F70">
         <v>10.17</v>
       </c>
-      <c r="G70" s="1">
+      <c r="G70">
         <v>9.52</v>
       </c>
-      <c r="H70" s="1">
+      <c r="H70">
         <v>10</v>
       </c>
-      <c r="I70" s="1">
+      <c r="I70">
         <v>9.43</v>
       </c>
-      <c r="J70" s="1">
+      <c r="J70">
         <v>11.32</v>
       </c>
-      <c r="K70" s="1">
+      <c r="K70">
         <v>12.39</v>
       </c>
-      <c r="L70" s="1">
+      <c r="L70">
         <v>13.59</v>
       </c>
-      <c r="M70" s="1">
+      <c r="M70">
         <v>15.4</v>
       </c>
-      <c r="N70" s="1">
+      <c r="N70">
         <v>17.329999999999998</v>
       </c>
     </row>
@@ -3470,43 +3473,43 @@
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71">
         <v>12.19</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71">
         <v>11.43</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71">
         <v>11.1</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E71">
         <v>10.41</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F71">
         <v>10.130000000000001</v>
       </c>
-      <c r="G71" s="1">
+      <c r="G71">
         <v>9.48</v>
       </c>
-      <c r="H71" s="1">
+      <c r="H71">
         <v>9.56</v>
       </c>
-      <c r="I71" s="1">
+      <c r="I71">
         <v>9.39</v>
       </c>
-      <c r="J71" s="1">
+      <c r="J71">
         <v>11.27</v>
       </c>
-      <c r="K71" s="1">
+      <c r="K71">
         <v>12.33</v>
       </c>
-      <c r="L71" s="1">
+      <c r="L71">
         <v>13.51</v>
       </c>
-      <c r="M71" s="1">
+      <c r="M71">
         <v>15.3</v>
       </c>
-      <c r="N71" s="1">
+      <c r="N71">
         <v>17.23</v>
       </c>
     </row>
@@ -3514,43 +3517,43 @@
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72">
         <v>12.13</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72">
         <v>11.38</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72">
         <v>11.05</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E72">
         <v>10.36</v>
       </c>
-      <c r="F72" s="1">
+      <c r="F72">
         <v>10.09</v>
       </c>
-      <c r="G72" s="1">
+      <c r="G72">
         <v>9.44</v>
       </c>
-      <c r="H72" s="1">
+      <c r="H72">
         <v>9.52</v>
       </c>
-      <c r="I72" s="1">
+      <c r="I72">
         <v>9.35</v>
       </c>
-      <c r="J72" s="1">
+      <c r="J72">
         <v>11.23</v>
       </c>
-      <c r="K72" s="1">
+      <c r="K72">
         <v>12.28</v>
       </c>
-      <c r="L72" s="1">
+      <c r="L72">
         <v>13.46</v>
       </c>
-      <c r="M72" s="1">
+      <c r="M72">
         <v>15.23</v>
       </c>
-      <c r="N72" s="1">
+      <c r="N72">
         <v>17.14</v>
       </c>
     </row>
@@ -3558,43 +3561,43 @@
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73">
         <v>12.07</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73">
         <v>11.32</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73">
         <v>11.01</v>
       </c>
-      <c r="E73" s="1">
+      <c r="E73">
         <v>10.32</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F73">
         <v>10.050000000000001</v>
       </c>
-      <c r="G73" s="1">
+      <c r="G73">
         <v>9.41</v>
       </c>
-      <c r="H73" s="1">
+      <c r="H73">
         <v>9.48</v>
       </c>
-      <c r="I73" s="1">
+      <c r="I73">
         <v>9.31</v>
       </c>
-      <c r="J73" s="1">
+      <c r="J73">
         <v>11.18</v>
       </c>
-      <c r="K73" s="1">
+      <c r="K73">
         <v>12.22</v>
       </c>
-      <c r="L73" s="1">
+      <c r="L73">
         <v>13.38</v>
       </c>
-      <c r="M73" s="1">
+      <c r="M73">
         <v>15.14</v>
       </c>
-      <c r="N73" s="1">
+      <c r="N73">
         <v>17.059999999999999</v>
       </c>
     </row>
@@ -3602,43 +3605,43 @@
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74">
         <v>12.01</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74">
         <v>11.27</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74">
         <v>10.56</v>
       </c>
-      <c r="E74" s="1">
+      <c r="E74">
         <v>10.27</v>
       </c>
-      <c r="F74" s="1">
+      <c r="F74">
         <v>10.01</v>
       </c>
-      <c r="G74" s="1">
+      <c r="G74">
         <v>9.3699999999999992</v>
       </c>
-      <c r="H74" s="1">
+      <c r="H74">
         <v>9.44</v>
       </c>
-      <c r="I74" s="1">
+      <c r="I74">
         <v>9.2799999999999994</v>
       </c>
-      <c r="J74" s="1">
+      <c r="J74">
         <v>11.13</v>
       </c>
-      <c r="K74" s="1">
+      <c r="K74">
         <v>12.16</v>
       </c>
-      <c r="L74" s="1">
+      <c r="L74">
         <v>13.31</v>
       </c>
-      <c r="M74" s="1">
+      <c r="M74">
         <v>15.05</v>
       </c>
-      <c r="N74" s="1">
+      <c r="N74">
         <v>16.57</v>
       </c>
     </row>
@@ -3646,43 +3649,43 @@
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75">
         <v>11.56</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75">
         <v>11.22</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75">
         <v>10.51</v>
       </c>
-      <c r="E75" s="1">
+      <c r="E75">
         <v>10.23</v>
       </c>
-      <c r="F75" s="1">
+      <c r="F75">
         <v>9.57</v>
       </c>
-      <c r="G75" s="1">
+      <c r="G75">
         <v>9.33</v>
       </c>
-      <c r="H75" s="1">
+      <c r="H75">
         <v>9.41</v>
       </c>
-      <c r="I75" s="1">
+      <c r="I75">
         <v>9.24</v>
       </c>
-      <c r="J75" s="1">
+      <c r="J75">
         <v>11.09</v>
       </c>
-      <c r="K75" s="1">
+      <c r="K75">
         <v>12.12</v>
       </c>
-      <c r="L75" s="1">
+      <c r="L75">
         <v>13.25</v>
       </c>
-      <c r="M75" s="1">
+      <c r="M75">
         <v>14.58</v>
       </c>
-      <c r="N75" s="1">
+      <c r="N75">
         <v>16.48</v>
       </c>
     </row>
@@ -3690,43 +3693,43 @@
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76">
         <v>11.5</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76">
         <v>11.17</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76">
         <v>10.46</v>
       </c>
-      <c r="E76" s="1">
+      <c r="E76">
         <v>10.19</v>
       </c>
-      <c r="F76" s="1">
+      <c r="F76">
         <v>9.5299999999999994</v>
       </c>
-      <c r="G76" s="1">
+      <c r="G76">
         <v>9.3000000000000007</v>
       </c>
-      <c r="H76" s="1">
+      <c r="H76">
         <v>9.36</v>
       </c>
-      <c r="I76" s="1">
+      <c r="I76">
         <v>9.2100000000000009</v>
       </c>
-      <c r="J76" s="1">
+      <c r="J76">
         <v>11.04</v>
       </c>
-      <c r="K76" s="1">
+      <c r="K76">
         <v>12.06</v>
       </c>
-      <c r="L76" s="1">
+      <c r="L76">
         <v>13.18</v>
       </c>
-      <c r="M76" s="1">
+      <c r="M76">
         <v>14.49</v>
       </c>
-      <c r="N76" s="1">
+      <c r="N76">
         <v>16.399999999999999</v>
       </c>
     </row>
@@ -3734,43 +3737,43 @@
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77">
         <v>11.45</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77">
         <v>11.12</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77">
         <v>10.42</v>
       </c>
-      <c r="E77" s="1">
+      <c r="E77">
         <v>10.14</v>
       </c>
-      <c r="F77" s="1">
+      <c r="F77">
         <v>9.49</v>
       </c>
-      <c r="G77" s="1">
+      <c r="G77">
         <v>9.26</v>
       </c>
-      <c r="H77" s="1">
+      <c r="H77">
         <v>9.31</v>
       </c>
-      <c r="I77" s="1">
+      <c r="I77">
         <v>9.17</v>
       </c>
-      <c r="J77" s="1">
+      <c r="J77">
         <v>11.01</v>
       </c>
-      <c r="K77" s="1">
+      <c r="K77">
         <v>12.01</v>
       </c>
-      <c r="L77" s="1">
+      <c r="L77">
         <v>13.13</v>
       </c>
-      <c r="M77" s="1">
+      <c r="M77">
         <v>14.42</v>
       </c>
-      <c r="N77" s="1">
+      <c r="N77">
         <v>16.32</v>
       </c>
     </row>
@@ -3778,43 +3781,43 @@
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78">
         <v>11.39</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78">
         <v>11.07</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78">
         <v>10.37</v>
       </c>
-      <c r="E78" s="1">
+      <c r="E78">
         <v>10.1</v>
       </c>
-      <c r="F78" s="1">
+      <c r="F78">
         <v>9.4499999999999993</v>
       </c>
-      <c r="G78" s="1">
+      <c r="G78">
         <v>9.2200000000000006</v>
       </c>
-      <c r="H78" s="1">
+      <c r="H78">
         <v>9.27</v>
       </c>
-      <c r="I78" s="1">
+      <c r="I78">
         <v>9.14</v>
       </c>
-      <c r="J78" s="1">
+      <c r="J78">
         <v>10.56</v>
       </c>
-      <c r="K78" s="1">
+      <c r="K78">
         <v>11.56</v>
       </c>
-      <c r="L78" s="1">
+      <c r="L78">
         <v>13.06</v>
       </c>
-      <c r="M78" s="1">
+      <c r="M78">
         <v>14.34</v>
       </c>
-      <c r="N78" s="1">
+      <c r="N78">
         <v>16.239999999999998</v>
       </c>
     </row>
@@ -4742,7 +4745,10 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="B3:N78">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
       <formula>B2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4854,43 +4860,43 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>27.54</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>25</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>22.38</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>20.41</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
         <v>19.03</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3">
         <v>17.39</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3">
         <v>17.579999999999998</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3">
         <v>16.57</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3">
         <v>21.3</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3">
         <v>25.45</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3">
         <v>32.049999999999997</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3">
         <v>42.33</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3">
         <v>42.51</v>
       </c>
     </row>
@@ -4898,43 +4904,43 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>27.24</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>24.35</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>22.18</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>20.239999999999998</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <v>18.489999999999998</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
         <v>17.27</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
         <v>17.45</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4">
         <v>16.46</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4">
         <v>21.17</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4">
         <v>25.25</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4">
         <v>31.35</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4">
         <v>41.4</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4">
         <v>41.57</v>
       </c>
     </row>
@@ -4942,43 +4948,43 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>26.54</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>24.12</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>21.59</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>20.079999999999998</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
         <v>18.350000000000001</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5">
         <v>17.14</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5">
         <v>17.329999999999998</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5">
         <v>16.34</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5">
         <v>20.59</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5">
         <v>25</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5">
         <v>30.56</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5">
         <v>40.32</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5">
         <v>41.06</v>
       </c>
     </row>
@@ -4986,43 +4992,43 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>26.26</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>23.49</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>21.4</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>19.52</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
         <v>18.21</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6">
         <v>17.03</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6">
         <v>17.2</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6">
         <v>16.239999999999998</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6">
         <v>20.46</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6">
         <v>24.41</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6">
         <v>30.27</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6">
         <v>39.44</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6">
         <v>40.159999999999997</v>
       </c>
     </row>
@@ -5030,43 +5036,43 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>25.58</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>23.26</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>21.21</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>19.36</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <v>18.079999999999998</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7">
         <v>16.510000000000002</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7">
         <v>17.09</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7">
         <v>16.13</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7">
         <v>20.29</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7">
         <v>24.17</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7">
         <v>29.51</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7">
         <v>38.43</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7">
         <v>39.28</v>
       </c>
     </row>
@@ -5074,43 +5080,43 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>25.32</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>23.05</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>21.03</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>19.21</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
         <v>17.55</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8">
         <v>16.399999999999999</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8">
         <v>16.57</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8">
         <v>16.03</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8">
         <v>20.12</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8">
         <v>23.54</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8">
         <v>29.16</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8">
         <v>37.44</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8">
         <v>38.43</v>
       </c>
     </row>
@@ -5118,43 +5124,43 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>25.06</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>22.44</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>20.46</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>19.059999999999999</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
         <v>17.420000000000002</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9">
         <v>16.29</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9">
         <v>16.46</v>
       </c>
-      <c r="I9" s="1">
-        <v>15.58</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="I9">
+        <v>15.42</v>
+      </c>
+      <c r="J9">
         <v>20</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9">
         <v>23.37</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9">
         <v>28.51</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9">
         <v>37.020000000000003</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9">
         <v>37.58</v>
       </c>
     </row>
@@ -5162,43 +5168,43 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>24.41</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>22.23</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>20.29</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>18.52</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10">
         <v>17.3</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10">
         <v>16.18</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10">
         <v>16.34</v>
       </c>
-      <c r="I10" s="1">
-        <v>15.42</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="I10">
+        <v>15.33</v>
+      </c>
+      <c r="J10">
         <v>19.440000000000001</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10">
         <v>23.15</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10">
         <v>28.18</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10">
         <v>36.090000000000003</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10">
         <v>37.159999999999997</v>
       </c>
     </row>
@@ -5206,43 +5212,43 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>24.17</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>22.04</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>20.12</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <v>18.38</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11">
         <v>17.170000000000002</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11">
         <v>16.079999999999998</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11">
         <v>16.239999999999998</v>
       </c>
-      <c r="I11" s="1">
-        <v>15.33</v>
-      </c>
-      <c r="J11" s="1">
+      <c r="I11">
+        <v>15.28</v>
+      </c>
+      <c r="J11">
         <v>19.329999999999998</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11">
         <v>22.59</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11">
         <v>27.47</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11">
         <v>35.18</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11">
         <v>36.35</v>
       </c>
     </row>
@@ -5250,43 +5256,43 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>23.54</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>21.44</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>19.559999999999999</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>18.239999999999998</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
         <v>17.059999999999999</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12">
         <v>15.57</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12">
         <v>16.13</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12">
         <v>15.23</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12">
         <v>19.18</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12">
         <v>22.38</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12">
         <v>27.24</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12">
         <v>34.409999999999997</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12">
         <v>35.56</v>
       </c>
     </row>
@@ -5294,43 +5300,43 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>23.32</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>21.26</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>19.399999999999999</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <v>18.11</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13">
         <v>16.54</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13">
         <v>15.47</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13">
         <v>16.03</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13">
         <v>15.14</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13">
         <v>19.03</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13">
         <v>22.18</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13">
         <v>26.54</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13">
         <v>33.54</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13">
         <v>35.18</v>
       </c>
     </row>
@@ -5338,43 +5344,43 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>23.1</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>21.08</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>19.25</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <v>17.579999999999998</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14">
         <v>16.43</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14">
         <v>15.37</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14">
         <v>15.52</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14">
         <v>15.05</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14">
         <v>18.52</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14">
         <v>22.04</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14">
         <v>26.33</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14">
         <v>33.200000000000003</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14">
         <v>34.409999999999997</v>
       </c>
     </row>
@@ -5382,43 +5388,43 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>22.49</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>20.5</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>19.100000000000001</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
         <v>17.45</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15">
         <v>16.32</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15">
         <v>15.28</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15">
         <v>15.42</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15">
         <v>14.56</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15">
         <v>18.38</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15">
         <v>21.44</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15">
         <v>26.05</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15">
         <v>32.369999999999997</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15">
         <v>34.049999999999997</v>
       </c>
     </row>
@@ -5426,43 +5432,43 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>22.28</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>20.329999999999998</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>18.559999999999999</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
         <v>17.329999999999998</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16">
         <v>16.21</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16">
         <v>15.18</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16">
         <v>15.37</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16">
         <v>14.51</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16">
         <v>18.28</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16">
         <v>21.3</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16">
         <v>25.38</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16">
         <v>31.55</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N16">
         <v>33.31</v>
       </c>
     </row>
@@ -5470,43 +5476,43 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>22.08</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>20.16</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>18.41</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>17.2</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17">
         <v>16.100000000000001</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17">
         <v>15.09</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17">
         <v>15.28</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17">
         <v>14.42</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17">
         <v>18.14</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17">
         <v>21.12</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17">
         <v>25.19</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17">
         <v>31.25</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N17">
         <v>32.58</v>
       </c>
     </row>
@@ -5514,43 +5520,43 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>21.49</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
         <v>20</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>18.28</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18">
         <v>17.09</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18">
         <v>16</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18">
         <v>15</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18">
         <v>15.18</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18">
         <v>14.34</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18">
         <v>18.010000000000002</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18">
         <v>20.54</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18">
         <v>24.54</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18">
         <v>30.46</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N18">
         <v>32.26</v>
       </c>
     </row>
@@ -5558,43 +5564,43 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>21.3</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>19.440000000000001</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
         <v>18.14</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19">
         <v>16.57</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19">
         <v>15.5</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19">
         <v>14.51</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19">
         <v>15.09</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19">
         <v>14.25</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19">
         <v>17.510000000000002</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19">
         <v>20.41</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19">
         <v>24.29</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19">
         <v>30.09</v>
       </c>
-      <c r="N19" s="1">
+      <c r="N19">
         <v>31.55</v>
       </c>
     </row>
@@ -5602,43 +5608,43 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>21.12</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>19.29</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
         <v>18.010000000000002</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20">
         <v>16.46</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20">
         <v>15.4</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20">
         <v>14.42</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20">
         <v>15</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20">
         <v>14.17</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20">
         <v>17.39</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20">
         <v>20.239999999999998</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20">
         <v>24.12</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20">
         <v>29.42</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N20">
         <v>31.25</v>
       </c>
     </row>
@@ -5646,43 +5652,43 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>20.54</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
         <v>19.14</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21">
         <v>17.48</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21">
         <v>16.34</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21">
         <v>15.3</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21">
         <v>14.34</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21">
         <v>14.51</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21">
         <v>14.09</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21">
         <v>17.27</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21">
         <v>20.079999999999998</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21">
         <v>23.49</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21">
         <v>29.08</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N21">
         <v>30.56</v>
       </c>
     </row>
@@ -5690,43 +5696,43 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>20.37</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22">
         <v>18.59</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <v>17.36</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22">
         <v>16.239999999999998</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22">
         <v>15.21</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22">
         <v>14.25</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22">
         <v>14.42</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22">
         <v>14.01</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22">
         <v>17.170000000000002</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22">
         <v>19.559999999999999</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22">
         <v>23.32</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22">
         <v>28.42</v>
       </c>
-      <c r="N22" s="1">
+      <c r="N22">
         <v>30.27</v>
       </c>
     </row>
@@ -5734,43 +5740,43 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <v>20.2</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23">
         <v>18.45</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23">
         <v>17.23</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23">
         <v>16.13</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23">
         <v>15.11</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23">
         <v>14.17</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23">
         <v>14.34</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23">
         <v>13.53</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23">
         <v>17.059999999999999</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23">
         <v>19.399999999999999</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23">
         <v>23.1</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23">
         <v>28.1</v>
       </c>
-      <c r="N23" s="1">
+      <c r="N23">
         <v>30</v>
       </c>
     </row>
@@ -5778,43 +5784,43 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <v>20.04</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24">
         <v>18.309999999999999</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24">
         <v>17.12</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24">
         <v>16.03</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24">
         <v>15.02</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24">
         <v>14.09</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24">
         <v>14.25</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24">
         <v>13.46</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24">
         <v>16.57</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24">
         <v>19.29</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24">
         <v>22.49</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24">
         <v>27.39</v>
       </c>
-      <c r="N24" s="1">
+      <c r="N24">
         <v>29.33</v>
       </c>
     </row>
@@ -5822,43 +5828,43 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>19.48</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
         <v>18.18</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25">
         <v>17</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25">
         <v>15.52</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25">
         <v>14.53</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25">
         <v>14.01</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25">
         <v>14.17</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25">
         <v>13.38</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25">
         <v>16.46</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25">
         <v>19.14</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25">
         <v>22.33</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25">
         <v>27.16</v>
       </c>
-      <c r="N25" s="1">
+      <c r="N25">
         <v>29.08</v>
       </c>
     </row>
@@ -5866,43 +5872,43 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>19.329999999999998</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>18.04</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26">
         <v>16.48</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26">
         <v>15.42</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26">
         <v>14.45</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26">
         <v>13.53</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26">
         <v>14.09</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26">
         <v>13.31</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26">
         <v>16.34</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26">
         <v>18.59</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26">
         <v>22.13</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26">
         <v>26.47</v>
       </c>
-      <c r="N26" s="1">
+      <c r="N26">
         <v>28.42</v>
       </c>
     </row>
@@ -5910,43 +5916,43 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>19.18</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27">
         <v>17.510000000000002</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27">
         <v>16.37</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27">
         <v>15.33</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27">
         <v>14.36</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27">
         <v>13.46</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27">
         <v>14.01</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27">
         <v>13.24</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27">
         <v>16.260000000000002</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27">
         <v>18.489999999999998</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27">
         <v>21.59</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27">
         <v>26.26</v>
       </c>
-      <c r="N27" s="1">
+      <c r="N27">
         <v>28.18</v>
       </c>
     </row>
@@ -5954,43 +5960,43 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>19.03</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28">
         <v>17.39</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28">
         <v>16.260000000000002</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28">
         <v>15.23</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28">
         <v>14.27</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28">
         <v>13.38</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28">
         <v>13.53</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28">
         <v>13.16</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28">
         <v>16.16</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28">
         <v>18.350000000000001</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28">
         <v>21.4</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28">
         <v>25.58</v>
       </c>
-      <c r="N28" s="1">
+      <c r="N28">
         <v>27.54</v>
       </c>
     </row>
@@ -5998,43 +6004,43 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
         <v>18.489999999999998</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29">
         <v>17.27</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29">
         <v>16.16</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29">
         <v>15.14</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29">
         <v>14.19</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29">
         <v>13.31</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29">
         <v>13.46</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29">
         <v>13.09</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29">
         <v>16.079999999999998</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29">
         <v>18.239999999999998</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29">
         <v>21.21</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29">
         <v>25.32</v>
       </c>
-      <c r="N29" s="1">
+      <c r="N29">
         <v>27.31</v>
       </c>
     </row>
@@ -6042,43 +6048,43 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30">
         <v>18.350000000000001</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
         <v>17.14</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30">
         <v>16.05</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30">
         <v>15.05</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30">
         <v>14.11</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30">
         <v>13.24</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30">
         <v>13.38</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30">
         <v>13.03</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30">
         <v>15.57</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30">
         <v>18.11</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30">
         <v>21.08</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30">
         <v>25.13</v>
       </c>
-      <c r="N30" s="1">
+      <c r="N30">
         <v>27.09</v>
       </c>
     </row>
@@ -6086,43 +6092,43 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
         <v>18.21</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31">
         <v>17.03</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31">
         <v>15.55</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31">
         <v>14.56</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31">
         <v>14.03</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31">
         <v>13.16</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31">
         <v>13.31</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31">
         <v>12.56</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31">
         <v>15.47</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31">
         <v>17.579999999999998</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31">
         <v>20.5</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31">
         <v>24.48</v>
       </c>
-      <c r="N31" s="1">
+      <c r="N31">
         <v>26.47</v>
       </c>
     </row>
@@ -6130,43 +6136,43 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32">
         <v>18.079999999999998</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32">
         <v>16.510000000000002</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32">
         <v>15.45</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32">
         <v>14.47</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32">
         <v>13.55</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32">
         <v>13.09</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32">
         <v>13.24</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32">
         <v>12.49</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32">
         <v>15.4</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32">
         <v>17.48</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32">
         <v>20.329999999999998</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32">
         <v>24.23</v>
       </c>
-      <c r="N32" s="1">
+      <c r="N32">
         <v>26.26</v>
       </c>
     </row>
@@ -6174,43 +6180,43 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33">
         <v>17.55</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33">
         <v>16.399999999999999</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33">
         <v>15.35</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33">
         <v>14.38</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33">
         <v>13.48</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33">
         <v>13.03</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33">
         <v>13.16</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33">
         <v>12.43</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J33">
         <v>15.3</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K33">
         <v>17.36</v>
       </c>
-      <c r="L33" s="1">
+      <c r="L33">
         <v>20.2</v>
       </c>
-      <c r="M33" s="1">
+      <c r="M33">
         <v>24.06</v>
       </c>
-      <c r="N33" s="1">
+      <c r="N33">
         <v>26.05</v>
       </c>
     </row>
@@ -6218,43 +6224,43 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
         <v>17.420000000000002</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34">
         <v>16.29</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34">
         <v>15.25</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34">
         <v>14.3</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34">
         <v>13.4</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34">
         <v>12.56</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34">
         <v>13.09</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34">
         <v>12.36</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J34">
         <v>15.23</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K34">
         <v>17.27</v>
       </c>
-      <c r="L34" s="1">
+      <c r="L34">
         <v>20.04</v>
       </c>
-      <c r="M34" s="1">
+      <c r="M34">
         <v>23.43</v>
       </c>
-      <c r="N34" s="1">
+      <c r="N34">
         <v>25.45</v>
       </c>
     </row>
@@ -6262,43 +6268,43 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35">
         <v>17.3</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35">
         <v>16.18</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35">
         <v>15.16</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35">
         <v>14.21</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35">
         <v>13.33</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35">
         <v>12.49</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35">
         <v>13.03</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35">
         <v>12.3</v>
       </c>
-      <c r="J35" s="1">
+      <c r="J35">
         <v>15.14</v>
       </c>
-      <c r="K35" s="1">
+      <c r="K35">
         <v>17.14</v>
       </c>
-      <c r="L35" s="1">
+      <c r="L35">
         <v>19.52</v>
       </c>
-      <c r="M35" s="1">
+      <c r="M35">
         <v>23.26</v>
       </c>
-      <c r="N35" s="1">
+      <c r="N35">
         <v>25.25</v>
       </c>
     </row>
@@ -6306,43 +6312,43 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36">
         <v>17.170000000000002</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36">
         <v>16.079999999999998</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36">
         <v>15.07</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36">
         <v>14.13</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36">
         <v>13.25</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36">
         <v>12.43</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36">
         <v>12.56</v>
       </c>
-      <c r="I36" s="1">
-        <v>12.24</v>
-      </c>
-      <c r="J36" s="1">
+      <c r="I36">
+        <v>12.28</v>
+      </c>
+      <c r="J36">
         <v>15.05</v>
       </c>
-      <c r="K36" s="1">
+      <c r="K36">
         <v>17.03</v>
       </c>
-      <c r="L36" s="1">
+      <c r="L36">
         <v>19.36</v>
       </c>
-      <c r="M36" s="1">
+      <c r="M36">
         <v>23.05</v>
       </c>
-      <c r="N36" s="1">
+      <c r="N36">
         <v>25.06</v>
       </c>
     </row>
@@ -6350,43 +6356,43 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37">
         <v>17.059999999999999</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37">
         <v>15.57</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37">
         <v>14.58</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37">
         <v>14.05</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37">
         <v>13.18</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37">
         <v>12.36</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37">
         <v>12.46</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I37">
         <v>12.2</v>
       </c>
-      <c r="J37" s="1">
+      <c r="J37">
         <v>14.58</v>
       </c>
-      <c r="K37" s="1">
+      <c r="K37">
         <v>16.54</v>
       </c>
-      <c r="L37" s="1">
+      <c r="L37">
         <v>19.21</v>
       </c>
-      <c r="M37" s="1">
+      <c r="M37">
         <v>22.44</v>
       </c>
-      <c r="N37" s="1">
+      <c r="N37">
         <v>24.48</v>
       </c>
     </row>
@@ -6394,43 +6400,43 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38">
         <v>16.54</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38">
         <v>15.47</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38">
         <v>14.49</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38">
         <v>13.57</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38">
         <v>13.11</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38">
         <v>12.3</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38">
         <v>12.39</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I38">
         <v>12.15</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J38">
         <v>14.49</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K38">
         <v>16.43</v>
       </c>
-      <c r="L38" s="1">
+      <c r="L38">
         <v>19.100000000000001</v>
       </c>
-      <c r="M38" s="1">
+      <c r="M38">
         <v>22.28</v>
       </c>
-      <c r="N38" s="1">
+      <c r="N38">
         <v>24.29</v>
       </c>
     </row>
@@ -6438,43 +6444,43 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39">
         <v>16.43</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39">
         <v>15.37</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39">
         <v>14.4</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39">
         <v>13.49</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39">
         <v>13.04</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39">
         <v>12.24</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H39">
         <v>12.36</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I39">
         <v>12.09</v>
       </c>
-      <c r="J39" s="1">
+      <c r="J39">
         <v>14.42</v>
       </c>
-      <c r="K39" s="1">
+      <c r="K39">
         <v>16.34</v>
       </c>
-      <c r="L39" s="1">
+      <c r="L39">
         <v>18.559999999999999</v>
       </c>
-      <c r="M39" s="1">
+      <c r="M39">
         <v>22.08</v>
       </c>
-      <c r="N39" s="1">
+      <c r="N39">
         <v>24.12</v>
       </c>
     </row>
@@ -6482,43 +6488,43 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40">
         <v>16.32</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40">
         <v>15.28</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40">
         <v>14.32</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40">
         <v>13.42</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40">
         <v>12.58</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40">
         <v>12.18</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H40">
         <v>12.3</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40">
         <v>12.03</v>
       </c>
-      <c r="J40" s="1">
+      <c r="J40">
         <v>14.34</v>
       </c>
-      <c r="K40" s="1">
+      <c r="K40">
         <v>16.239999999999998</v>
       </c>
-      <c r="L40" s="1">
+      <c r="L40">
         <v>18.41</v>
       </c>
-      <c r="M40" s="1">
+      <c r="M40">
         <v>21.49</v>
       </c>
-      <c r="N40" s="1">
+      <c r="N40">
         <v>23.49</v>
       </c>
     </row>
@@ -6526,43 +6532,43 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41">
         <v>16.21</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41">
         <v>15.18</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41">
         <v>14.23</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41">
         <v>13.34</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41">
         <v>12.51</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41">
         <v>12.12</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H41">
         <v>12.24</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41">
         <v>11.57</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J41">
         <v>14.25</v>
       </c>
-      <c r="K41" s="1">
+      <c r="K41">
         <v>16.13</v>
       </c>
-      <c r="L41" s="1">
+      <c r="L41">
         <v>18.309999999999999</v>
       </c>
-      <c r="M41" s="1">
+      <c r="M41">
         <v>21.35</v>
       </c>
-      <c r="N41" s="1">
+      <c r="N41">
         <v>23.32</v>
       </c>
     </row>
@@ -6570,43 +6576,43 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42">
         <v>16.100000000000001</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42">
         <v>15.09</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42">
         <v>14.15</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42">
         <v>13.27</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42">
         <v>12.44</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42">
         <v>12.06</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42">
         <v>12.18</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I42">
         <v>11.51</v>
       </c>
-      <c r="J42" s="1">
+      <c r="J42">
         <v>14.19</v>
       </c>
-      <c r="K42" s="1">
+      <c r="K42">
         <v>16.05</v>
       </c>
-      <c r="L42" s="1">
+      <c r="L42">
         <v>18.18</v>
       </c>
-      <c r="M42" s="1">
+      <c r="M42">
         <v>21.17</v>
       </c>
-      <c r="N42" s="1">
+      <c r="N42">
         <v>23.15</v>
       </c>
     </row>
@@ -6614,43 +6620,43 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43">
         <v>16</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43">
         <v>15</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43">
         <v>14.07</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43">
         <v>13.2</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43">
         <v>12.38</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43">
         <v>12</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H43">
         <v>12.12</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I43">
         <v>11.46</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J43">
         <v>14.11</v>
       </c>
-      <c r="K43" s="1">
+      <c r="K43">
         <v>15.55</v>
       </c>
-      <c r="L43" s="1">
+      <c r="L43">
         <v>18.079999999999998</v>
       </c>
-      <c r="M43" s="1">
+      <c r="M43">
         <v>21.03</v>
       </c>
-      <c r="N43" s="1">
+      <c r="N43">
         <v>22.59</v>
       </c>
     </row>
@@ -6658,43 +6664,43 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44">
         <v>15.5</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44">
         <v>14.51</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44">
         <v>13.59</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44">
         <v>13.13</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44">
         <v>12.32</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44">
         <v>11.54</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H44">
         <v>12.06</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I44">
         <v>11.38</v>
       </c>
-      <c r="J44" s="1">
+      <c r="J44">
         <v>14.05</v>
       </c>
-      <c r="K44" s="1">
+      <c r="K44">
         <v>15.47</v>
       </c>
-      <c r="L44" s="1">
+      <c r="L44">
         <v>17.55</v>
       </c>
-      <c r="M44" s="1">
+      <c r="M44">
         <v>20.46</v>
       </c>
-      <c r="N44" s="1">
+      <c r="N44">
         <v>22.44</v>
       </c>
     </row>
@@ -6702,43 +6708,43 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45">
         <v>15.4</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45">
         <v>14.42</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45">
         <v>13.51</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45">
         <v>13.06</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45">
         <v>12.25</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45">
         <v>11.49</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H45">
         <v>12</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I45">
         <v>11.32</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J45">
         <v>13.57</v>
       </c>
-      <c r="K45" s="1">
+      <c r="K45">
         <v>15.37</v>
       </c>
-      <c r="L45" s="1">
+      <c r="L45">
         <v>17.420000000000002</v>
       </c>
-      <c r="M45" s="1">
+      <c r="M45">
         <v>20.29</v>
       </c>
-      <c r="N45" s="1">
+      <c r="N45">
         <v>22.28</v>
       </c>
     </row>
@@ -6746,43 +6752,43 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46">
         <v>15.3</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46">
         <v>14.34</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46">
         <v>13.44</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46">
         <v>12.59</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46">
         <v>12.19</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46">
         <v>11.43</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H46">
         <v>11.54</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I46">
         <v>11.27</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J46">
         <v>13.49</v>
       </c>
-      <c r="K46" s="1">
+      <c r="K46">
         <v>15.28</v>
       </c>
-      <c r="L46" s="1">
+      <c r="L46">
         <v>17.329999999999998</v>
       </c>
-      <c r="M46" s="1">
+      <c r="M46">
         <v>20.16</v>
       </c>
-      <c r="N46" s="1">
+      <c r="N46">
         <v>22.13</v>
       </c>
     </row>
@@ -6790,43 +6796,43 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47">
         <v>15.21</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47">
         <v>14.25</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47">
         <v>13.36</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47">
         <v>12.53</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47">
         <v>12.13</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47">
         <v>11.38</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47">
         <v>11.49</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I47">
         <v>11.22</v>
       </c>
-      <c r="J47" s="1">
+      <c r="J47">
         <v>13.44</v>
       </c>
-      <c r="K47" s="1">
+      <c r="K47">
         <v>15.21</v>
       </c>
-      <c r="L47" s="1">
+      <c r="L47">
         <v>17.2</v>
       </c>
-      <c r="M47" s="1">
+      <c r="M47">
         <v>20</v>
       </c>
-      <c r="N47" s="1">
+      <c r="N47">
         <v>21.59</v>
       </c>
     </row>
@@ -6834,43 +6840,43 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48">
         <v>15.11</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48">
         <v>14.17</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48">
         <v>13.29</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48">
         <v>12.46</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48">
         <v>12.07</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48">
         <v>11.32</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H48">
         <v>11.43</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I48">
         <v>11.19</v>
       </c>
-      <c r="J48" s="1">
+      <c r="J48">
         <v>13.36</v>
       </c>
-      <c r="K48" s="1">
+      <c r="K48">
         <v>15.11</v>
       </c>
-      <c r="L48" s="1">
+      <c r="L48">
         <v>17.12</v>
       </c>
-      <c r="M48" s="1">
+      <c r="M48">
         <v>19.48</v>
       </c>
-      <c r="N48" s="1">
+      <c r="N48">
         <v>21.44</v>
       </c>
     </row>
@@ -6878,43 +6884,43 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49">
         <v>15.02</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49">
         <v>14.09</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49">
         <v>13.22</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49">
         <v>12.39</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49">
         <v>12.01</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49">
         <v>11.27</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H49">
         <v>11.38</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I49">
         <v>11.14</v>
       </c>
-      <c r="J49" s="1">
+      <c r="J49">
         <v>13.31</v>
       </c>
-      <c r="K49" s="1">
+      <c r="K49">
         <v>15.05</v>
       </c>
-      <c r="L49" s="1">
+      <c r="L49">
         <v>17</v>
       </c>
-      <c r="M49" s="1">
+      <c r="M49">
         <v>19.329999999999998</v>
       </c>
-      <c r="N49" s="1">
+      <c r="N49">
         <v>21.3</v>
       </c>
     </row>
@@ -6922,43 +6928,43 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50">
         <v>14.53</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50">
         <v>14.01</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50">
         <v>13.15</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50">
         <v>12.33</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50">
         <v>11.56</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50">
         <v>11.22</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H50">
         <v>11.32</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I50">
         <v>11.09</v>
       </c>
-      <c r="J50" s="1">
+      <c r="J50">
         <v>13.24</v>
       </c>
-      <c r="K50" s="1">
+      <c r="K50">
         <v>14.56</v>
       </c>
-      <c r="L50" s="1">
+      <c r="L50">
         <v>16.48</v>
       </c>
-      <c r="M50" s="1">
+      <c r="M50">
         <v>19.18</v>
       </c>
-      <c r="N50" s="1">
+      <c r="N50">
         <v>21.17</v>
       </c>
     </row>
@@ -6966,43 +6972,43 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51">
         <v>14.45</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51">
         <v>13.53</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51">
         <v>13.08</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51">
         <v>12.27</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51">
         <v>11.5</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51">
         <v>11.17</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H51">
         <v>11.27</v>
       </c>
-      <c r="I51" s="1">
+      <c r="I51">
         <v>11.04</v>
       </c>
-      <c r="J51" s="1">
+      <c r="J51">
         <v>13.16</v>
       </c>
-      <c r="K51" s="1">
+      <c r="K51">
         <v>14.47</v>
       </c>
-      <c r="L51" s="1">
+      <c r="L51">
         <v>16.399999999999999</v>
       </c>
-      <c r="M51" s="1">
+      <c r="M51">
         <v>19.059999999999999</v>
       </c>
-      <c r="N51" s="1">
+      <c r="N51">
         <v>21.03</v>
       </c>
     </row>
@@ -7010,43 +7016,43 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52">
         <v>14.36</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52">
         <v>13.46</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52">
         <v>13.01</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52">
         <v>12.21</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52">
         <v>11.45</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G52">
         <v>11.12</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H52">
         <v>11.22</v>
       </c>
-      <c r="I52" s="1">
+      <c r="I52">
         <v>10.59</v>
       </c>
-      <c r="J52" s="1">
+      <c r="J52">
         <v>13.11</v>
       </c>
-      <c r="K52" s="1">
+      <c r="K52">
         <v>14.4</v>
       </c>
-      <c r="L52" s="1">
+      <c r="L52">
         <v>16.29</v>
       </c>
-      <c r="M52" s="1">
+      <c r="M52">
         <v>18.52</v>
       </c>
-      <c r="N52" s="1">
+      <c r="N52">
         <v>20.5</v>
       </c>
     </row>
@@ -7054,43 +7060,43 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53">
         <v>14.27</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53">
         <v>13.38</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53">
         <v>12.54</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53">
         <v>12.15</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53">
         <v>11.39</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G53">
         <v>11.07</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H53">
         <v>11.17</v>
       </c>
-      <c r="I53" s="1">
+      <c r="I53">
         <v>10.55</v>
       </c>
-      <c r="J53" s="1">
+      <c r="J53">
         <v>13.04</v>
       </c>
-      <c r="K53" s="1">
+      <c r="K53">
         <v>14.32</v>
       </c>
-      <c r="L53" s="1">
+      <c r="L53">
         <v>16.18</v>
       </c>
-      <c r="M53" s="1">
+      <c r="M53">
         <v>18.38</v>
       </c>
-      <c r="N53" s="1">
+      <c r="N53">
         <v>20.37</v>
       </c>
     </row>
@@ -7098,43 +7104,43 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54">
         <v>14.19</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54">
         <v>13.31</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54">
         <v>12.48</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54">
         <v>12.09</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54">
         <v>11.34</v>
       </c>
-      <c r="G54" s="1">
+      <c r="G54">
         <v>11.02</v>
       </c>
-      <c r="H54" s="1">
+      <c r="H54">
         <v>11.12</v>
       </c>
-      <c r="I54" s="1">
+      <c r="I54">
         <v>10.5</v>
       </c>
-      <c r="J54" s="1">
+      <c r="J54">
         <v>12.59</v>
       </c>
-      <c r="K54" s="1">
+      <c r="K54">
         <v>14.25</v>
       </c>
-      <c r="L54" s="1">
+      <c r="L54">
         <v>16.100000000000001</v>
       </c>
-      <c r="M54" s="1">
+      <c r="M54">
         <v>18.28</v>
       </c>
-      <c r="N54" s="1">
+      <c r="N54">
         <v>20.239999999999998</v>
       </c>
     </row>
@@ -7142,43 +7148,43 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55">
         <v>14.11</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55">
         <v>13.24</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55">
         <v>12.41</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55">
         <v>12.03</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55">
         <v>11.28</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G55">
         <v>10.57</v>
       </c>
-      <c r="H55" s="1">
+      <c r="H55">
         <v>11.07</v>
       </c>
-      <c r="I55" s="1">
+      <c r="I55">
         <v>10.45</v>
       </c>
-      <c r="J55" s="1">
+      <c r="J55">
         <v>12.53</v>
       </c>
-      <c r="K55" s="1">
+      <c r="K55">
         <v>14.17</v>
       </c>
-      <c r="L55" s="1">
+      <c r="L55">
         <v>16</v>
       </c>
-      <c r="M55" s="1">
+      <c r="M55">
         <v>18.14</v>
       </c>
-      <c r="N55" s="1">
+      <c r="N55">
         <v>20.12</v>
       </c>
     </row>
@@ -7186,43 +7192,43 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56">
         <v>14.03</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56">
         <v>13.16</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56">
         <v>12.35</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56">
         <v>11.57</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56">
         <v>11.23</v>
       </c>
-      <c r="G56" s="1">
+      <c r="G56">
         <v>10.52</v>
       </c>
-      <c r="H56" s="1">
+      <c r="H56">
         <v>11.02</v>
       </c>
-      <c r="I56" s="1">
+      <c r="I56">
         <v>10.41</v>
       </c>
-      <c r="J56" s="1">
+      <c r="J56">
         <v>12.46</v>
       </c>
-      <c r="K56" s="1">
+      <c r="K56">
         <v>14.09</v>
       </c>
-      <c r="L56" s="1">
+      <c r="L56">
         <v>15.52</v>
       </c>
-      <c r="M56" s="1">
+      <c r="M56">
         <v>18.04</v>
       </c>
-      <c r="N56" s="1">
+      <c r="N56">
         <v>20</v>
       </c>
     </row>
@@ -7230,43 +7236,43 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57">
         <v>13.55</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57">
         <v>13.09</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57">
         <v>12.28</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57">
         <v>11.51</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F57">
         <v>11.18</v>
       </c>
-      <c r="G57" s="1">
+      <c r="G57">
         <v>10.47</v>
       </c>
-      <c r="H57" s="1">
+      <c r="H57">
         <v>10.57</v>
       </c>
-      <c r="I57" s="1">
+      <c r="I57">
         <v>10.36</v>
       </c>
-      <c r="J57" s="1">
+      <c r="J57">
         <v>12.41</v>
       </c>
-      <c r="K57" s="1">
+      <c r="K57">
         <v>14.03</v>
       </c>
-      <c r="L57" s="1">
+      <c r="L57">
         <v>15.42</v>
       </c>
-      <c r="M57" s="1">
+      <c r="M57">
         <v>17.510000000000002</v>
       </c>
-      <c r="N57" s="1">
+      <c r="N57">
         <v>19.48</v>
       </c>
     </row>
@@ -7274,43 +7280,43 @@
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58">
         <v>13.48</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58">
         <v>13.03</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58">
         <v>12.22</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58">
         <v>11.46</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F58">
         <v>11.13</v>
       </c>
-      <c r="G58" s="1">
+      <c r="G58">
         <v>10.43</v>
       </c>
-      <c r="H58" s="1">
+      <c r="H58">
         <v>10.52</v>
       </c>
-      <c r="I58" s="1">
+      <c r="I58">
         <v>10.32</v>
       </c>
-      <c r="J58" s="1">
+      <c r="J58">
         <v>12.35</v>
       </c>
-      <c r="K58" s="1">
+      <c r="K58">
         <v>13.55</v>
       </c>
-      <c r="L58" s="1">
+      <c r="L58">
         <v>15.33</v>
       </c>
-      <c r="M58" s="1">
+      <c r="M58">
         <v>17.39</v>
       </c>
-      <c r="N58" s="1">
+      <c r="N58">
         <v>19.36</v>
       </c>
     </row>
@@ -7318,43 +7324,43 @@
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59">
         <v>13.4</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59">
         <v>12.56</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59">
         <v>12.16</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59">
         <v>11.4</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F59">
         <v>11.08</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G59">
         <v>10.38</v>
       </c>
-      <c r="H59" s="1">
+      <c r="H59">
         <v>10.47</v>
       </c>
-      <c r="I59" s="1">
+      <c r="I59">
         <v>10.27</v>
       </c>
-      <c r="J59" s="1">
+      <c r="J59">
         <v>12.28</v>
       </c>
-      <c r="K59" s="1">
+      <c r="K59">
         <v>13.48</v>
       </c>
-      <c r="L59" s="1">
+      <c r="L59">
         <v>15.25</v>
       </c>
-      <c r="M59" s="1">
+      <c r="M59">
         <v>17.3</v>
       </c>
-      <c r="N59" s="1">
+      <c r="N59">
         <v>19.25</v>
       </c>
     </row>
@@ -7362,43 +7368,43 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60">
         <v>13.33</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60">
         <v>12.49</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60">
         <v>12.1</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60">
         <v>11.35</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F60">
         <v>11.03</v>
       </c>
-      <c r="G60" s="1">
+      <c r="G60">
         <v>10.34</v>
       </c>
-      <c r="H60" s="1">
+      <c r="H60">
         <v>10.43</v>
       </c>
-      <c r="I60" s="1">
+      <c r="I60">
         <v>10.23</v>
       </c>
-      <c r="J60" s="1">
+      <c r="J60">
         <v>12.24</v>
       </c>
-      <c r="K60" s="1">
+      <c r="K60">
         <v>13.42</v>
       </c>
-      <c r="L60" s="1">
+      <c r="L60">
         <v>15.16</v>
       </c>
-      <c r="M60" s="1">
+      <c r="M60">
         <v>17.170000000000002</v>
       </c>
-      <c r="N60" s="1">
+      <c r="N60">
         <v>19.14</v>
       </c>
     </row>
@@ -7406,43 +7412,43 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61">
         <v>13.25</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61">
         <v>12.43</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61">
         <v>12.04</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61">
         <v>11.3</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F61">
         <v>10.58</v>
       </c>
-      <c r="G61" s="1">
+      <c r="G61">
         <v>10.29</v>
       </c>
-      <c r="H61" s="1">
+      <c r="H61">
         <v>10.38</v>
       </c>
-      <c r="I61" s="1">
+      <c r="I61">
         <v>10.19</v>
       </c>
-      <c r="J61" s="1">
+      <c r="J61">
         <v>12.18</v>
       </c>
-      <c r="K61" s="1">
+      <c r="K61">
         <v>13.34</v>
       </c>
-      <c r="L61" s="1">
+      <c r="L61">
         <v>15.09</v>
       </c>
-      <c r="M61" s="1">
+      <c r="M61">
         <v>17.09</v>
       </c>
-      <c r="N61" s="1">
+      <c r="N61">
         <v>19.03</v>
       </c>
     </row>
@@ -7450,43 +7456,43 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62">
         <v>13.18</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62">
         <v>12.36</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62">
         <v>11.59</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62">
         <v>11.24</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62">
         <v>10.53</v>
       </c>
-      <c r="G62" s="1">
+      <c r="G62">
         <v>10.25</v>
       </c>
-      <c r="H62" s="1">
+      <c r="H62">
         <v>10.34</v>
       </c>
-      <c r="I62" s="1">
+      <c r="I62">
         <v>10.14</v>
       </c>
-      <c r="J62" s="1">
+      <c r="J62">
         <v>12.13</v>
       </c>
-      <c r="K62" s="1">
+      <c r="K62">
         <v>13.29</v>
       </c>
-      <c r="L62" s="1">
+      <c r="L62">
         <v>15</v>
       </c>
-      <c r="M62" s="1">
+      <c r="M62">
         <v>16.57</v>
       </c>
-      <c r="N62" s="1">
+      <c r="N62">
         <v>18.52</v>
       </c>
     </row>
@@ -7494,43 +7500,43 @@
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63">
         <v>13.11</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63">
         <v>12.3</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63">
         <v>11.53</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63">
         <v>11.19</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F63">
         <v>10.49</v>
       </c>
-      <c r="G63" s="1">
+      <c r="G63">
         <v>10.210000000000001</v>
       </c>
-      <c r="H63" s="1">
+      <c r="H63">
         <v>10.29</v>
       </c>
-      <c r="I63" s="1">
+      <c r="I63">
         <v>10.1</v>
       </c>
-      <c r="J63" s="1">
+      <c r="J63">
         <v>12.07</v>
       </c>
-      <c r="K63" s="1">
+      <c r="K63">
         <v>13.22</v>
       </c>
-      <c r="L63" s="1">
+      <c r="L63">
         <v>14.51</v>
       </c>
-      <c r="M63" s="1">
+      <c r="M63">
         <v>16.46</v>
       </c>
-      <c r="N63" s="1">
+      <c r="N63">
         <v>18.41</v>
       </c>
     </row>
@@ -7538,43 +7544,43 @@
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64">
         <v>13.04</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64">
         <v>12.24</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64">
         <v>11.47</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64">
         <v>11.14</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F64">
         <v>10.44</v>
       </c>
-      <c r="G64" s="1">
+      <c r="G64">
         <v>10.16</v>
       </c>
-      <c r="H64" s="1">
+      <c r="H64">
         <v>10.25</v>
       </c>
-      <c r="I64" s="1">
+      <c r="I64">
         <v>10.06</v>
       </c>
-      <c r="J64" s="1">
+      <c r="J64">
         <v>12.01</v>
       </c>
-      <c r="K64" s="1">
+      <c r="K64">
         <v>13.15</v>
       </c>
-      <c r="L64" s="1">
+      <c r="L64">
         <v>14.45</v>
       </c>
-      <c r="M64" s="1">
+      <c r="M64">
         <v>16.37</v>
       </c>
-      <c r="N64" s="1">
+      <c r="N64">
         <v>18.309999999999999</v>
       </c>
     </row>
@@ -7582,43 +7588,43 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65">
         <v>12.58</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65">
         <v>12.18</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65">
         <v>11.42</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65">
         <v>11.09</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F65">
         <v>10.39</v>
       </c>
-      <c r="G65" s="1">
+      <c r="G65">
         <v>10.119999999999999</v>
       </c>
-      <c r="H65" s="1">
+      <c r="H65">
         <v>10.210000000000001</v>
       </c>
-      <c r="I65" s="1">
+      <c r="I65">
         <v>10.02</v>
       </c>
-      <c r="J65" s="1">
+      <c r="J65">
         <v>11.57</v>
       </c>
-      <c r="K65" s="1">
+      <c r="K65">
         <v>13.09</v>
       </c>
-      <c r="L65" s="1">
+      <c r="L65">
         <v>14.36</v>
       </c>
-      <c r="M65" s="1">
+      <c r="M65">
         <v>16.260000000000002</v>
       </c>
-      <c r="N65" s="1">
+      <c r="N65">
         <v>18.21</v>
       </c>
     </row>
@@ -7626,43 +7632,43 @@
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66">
         <v>12.51</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66">
         <v>12.12</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66">
         <v>11.36</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66">
         <v>11.04</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F66">
         <v>10.35</v>
       </c>
-      <c r="G66" s="1">
+      <c r="G66">
         <v>10.08</v>
       </c>
-      <c r="H66" s="1">
+      <c r="H66">
         <v>10.16</v>
       </c>
-      <c r="I66" s="1">
+      <c r="I66">
         <v>9.58</v>
       </c>
-      <c r="J66" s="1">
+      <c r="J66">
         <v>11.51</v>
       </c>
-      <c r="K66" s="1">
+      <c r="K66">
         <v>13.03</v>
       </c>
-      <c r="L66" s="1">
+      <c r="L66">
         <v>14.27</v>
       </c>
-      <c r="M66" s="1">
+      <c r="M66">
         <v>16.16</v>
       </c>
-      <c r="N66" s="1">
+      <c r="N66">
         <v>18.11</v>
       </c>
     </row>
@@ -7670,43 +7676,43 @@
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67">
         <v>12.44</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67">
         <v>12.06</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67">
         <v>11.31</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67">
         <v>10.59</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F67">
         <v>10.3</v>
       </c>
-      <c r="G67" s="1">
+      <c r="G67">
         <v>10.039999999999999</v>
       </c>
-      <c r="H67" s="1">
+      <c r="H67">
         <v>10.119999999999999</v>
       </c>
-      <c r="I67" s="1">
+      <c r="I67">
         <v>9.5399999999999991</v>
       </c>
-      <c r="J67" s="1">
+      <c r="J67">
         <v>11.47</v>
       </c>
-      <c r="K67" s="1">
+      <c r="K67">
         <v>12.58</v>
       </c>
-      <c r="L67" s="1">
+      <c r="L67">
         <v>14.21</v>
       </c>
-      <c r="M67" s="1">
+      <c r="M67">
         <v>16.079999999999998</v>
       </c>
-      <c r="N67" s="1">
+      <c r="N67">
         <v>18.010000000000002</v>
       </c>
     </row>
@@ -7714,43 +7720,43 @@
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68">
         <v>12.38</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68">
         <v>12</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68">
         <v>11.26</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E68">
         <v>10.55</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F68">
         <v>10.26</v>
       </c>
-      <c r="G68" s="1">
+      <c r="G68">
         <v>10</v>
       </c>
-      <c r="H68" s="1">
+      <c r="H68">
         <v>10.08</v>
       </c>
-      <c r="I68" s="1">
+      <c r="I68">
         <v>9.5</v>
       </c>
-      <c r="J68" s="1">
+      <c r="J68">
         <v>11.42</v>
       </c>
-      <c r="K68" s="1">
+      <c r="K68">
         <v>12.51</v>
       </c>
-      <c r="L68" s="1">
+      <c r="L68">
         <v>14.13</v>
       </c>
-      <c r="M68" s="1">
+      <c r="M68">
         <v>15.57</v>
       </c>
-      <c r="N68" s="1">
+      <c r="N68">
         <v>17.510000000000002</v>
       </c>
     </row>
@@ -7758,43 +7764,43 @@
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69">
         <v>12.32</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69">
         <v>11.54</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69">
         <v>11.21</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E69">
         <v>10.5</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F69">
         <v>10.220000000000001</v>
       </c>
-      <c r="G69" s="1">
+      <c r="G69">
         <v>9.56</v>
       </c>
-      <c r="H69" s="1">
+      <c r="H69">
         <v>10.039999999999999</v>
       </c>
-      <c r="I69" s="1">
+      <c r="I69">
         <v>9.4600000000000009</v>
       </c>
-      <c r="J69" s="1">
+      <c r="J69">
         <v>11.36</v>
       </c>
-      <c r="K69" s="1">
+      <c r="K69">
         <v>12.44</v>
       </c>
-      <c r="L69" s="1">
+      <c r="L69">
         <v>14.07</v>
       </c>
-      <c r="M69" s="1">
+      <c r="M69">
         <v>15.5</v>
       </c>
-      <c r="N69" s="1">
+      <c r="N69">
         <v>17.420000000000002</v>
       </c>
     </row>
@@ -7802,43 +7808,43 @@
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70">
         <v>12.25</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70">
         <v>11.49</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70">
         <v>11.15</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E70">
         <v>10.45</v>
       </c>
-      <c r="F70" s="1">
+      <c r="F70">
         <v>10.17</v>
       </c>
-      <c r="G70" s="1">
+      <c r="G70">
         <v>9.52</v>
       </c>
-      <c r="H70" s="1">
+      <c r="H70">
         <v>10</v>
       </c>
-      <c r="I70" s="1">
+      <c r="I70">
         <v>9.43</v>
       </c>
-      <c r="J70" s="1">
+      <c r="J70">
         <v>11.32</v>
       </c>
-      <c r="K70" s="1">
+      <c r="K70">
         <v>12.39</v>
       </c>
-      <c r="L70" s="1">
+      <c r="L70">
         <v>13.59</v>
       </c>
-      <c r="M70" s="1">
+      <c r="M70">
         <v>15.4</v>
       </c>
-      <c r="N70" s="1">
+      <c r="N70">
         <v>17.329999999999998</v>
       </c>
     </row>
@@ -7846,43 +7852,43 @@
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71">
         <v>12.19</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71">
         <v>11.43</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71">
         <v>11.1</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E71">
         <v>10.41</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F71">
         <v>10.130000000000001</v>
       </c>
-      <c r="G71" s="1">
+      <c r="G71">
         <v>9.48</v>
       </c>
-      <c r="H71" s="1">
+      <c r="H71">
         <v>9.56</v>
       </c>
-      <c r="I71" s="1">
+      <c r="I71">
         <v>9.39</v>
       </c>
-      <c r="J71" s="1">
+      <c r="J71">
         <v>11.27</v>
       </c>
-      <c r="K71" s="1">
+      <c r="K71">
         <v>12.33</v>
       </c>
-      <c r="L71" s="1">
+      <c r="L71">
         <v>13.51</v>
       </c>
-      <c r="M71" s="1">
+      <c r="M71">
         <v>15.3</v>
       </c>
-      <c r="N71" s="1">
+      <c r="N71">
         <v>17.23</v>
       </c>
     </row>
@@ -7890,43 +7896,43 @@
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72">
         <v>12.13</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72">
         <v>11.38</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72">
         <v>11.05</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E72">
         <v>10.36</v>
       </c>
-      <c r="F72" s="1">
+      <c r="F72">
         <v>10.09</v>
       </c>
-      <c r="G72" s="1">
+      <c r="G72">
         <v>9.44</v>
       </c>
-      <c r="H72" s="1">
+      <c r="H72">
         <v>9.52</v>
       </c>
-      <c r="I72" s="1">
+      <c r="I72">
         <v>9.35</v>
       </c>
-      <c r="J72" s="1">
+      <c r="J72">
         <v>11.23</v>
       </c>
-      <c r="K72" s="1">
+      <c r="K72">
         <v>12.28</v>
       </c>
-      <c r="L72" s="1">
+      <c r="L72">
         <v>13.46</v>
       </c>
-      <c r="M72" s="1">
+      <c r="M72">
         <v>15.23</v>
       </c>
-      <c r="N72" s="1">
+      <c r="N72">
         <v>17.14</v>
       </c>
     </row>
@@ -7934,43 +7940,43 @@
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73">
         <v>12.07</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73">
         <v>11.32</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73">
         <v>11.01</v>
       </c>
-      <c r="E73" s="1">
+      <c r="E73">
         <v>10.32</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F73">
         <v>10.050000000000001</v>
       </c>
-      <c r="G73" s="1">
+      <c r="G73">
         <v>9.41</v>
       </c>
-      <c r="H73" s="1">
+      <c r="H73">
         <v>9.48</v>
       </c>
-      <c r="I73" s="1">
+      <c r="I73">
         <v>9.31</v>
       </c>
-      <c r="J73" s="1">
+      <c r="J73">
         <v>11.18</v>
       </c>
-      <c r="K73" s="1">
+      <c r="K73">
         <v>12.22</v>
       </c>
-      <c r="L73" s="1">
+      <c r="L73">
         <v>13.38</v>
       </c>
-      <c r="M73" s="1">
+      <c r="M73">
         <v>15.14</v>
       </c>
-      <c r="N73" s="1">
+      <c r="N73">
         <v>17.059999999999999</v>
       </c>
     </row>
@@ -7978,43 +7984,43 @@
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74">
         <v>12.01</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74">
         <v>11.27</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74">
         <v>10.56</v>
       </c>
-      <c r="E74" s="1">
+      <c r="E74">
         <v>10.27</v>
       </c>
-      <c r="F74" s="1">
+      <c r="F74">
         <v>10.01</v>
       </c>
-      <c r="G74" s="1">
+      <c r="G74">
         <v>9.3699999999999992</v>
       </c>
-      <c r="H74" s="1">
+      <c r="H74">
         <v>9.44</v>
       </c>
-      <c r="I74" s="1">
+      <c r="I74">
         <v>9.2799999999999994</v>
       </c>
-      <c r="J74" s="1">
+      <c r="J74">
         <v>11.13</v>
       </c>
-      <c r="K74" s="1">
+      <c r="K74">
         <v>12.16</v>
       </c>
-      <c r="L74" s="1">
+      <c r="L74">
         <v>13.31</v>
       </c>
-      <c r="M74" s="1">
+      <c r="M74">
         <v>15.05</v>
       </c>
-      <c r="N74" s="1">
+      <c r="N74">
         <v>16.57</v>
       </c>
     </row>
@@ -8022,43 +8028,43 @@
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75">
         <v>11.56</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75">
         <v>11.22</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75">
         <v>10.51</v>
       </c>
-      <c r="E75" s="1">
+      <c r="E75">
         <v>10.23</v>
       </c>
-      <c r="F75" s="1">
+      <c r="F75">
         <v>9.57</v>
       </c>
-      <c r="G75" s="1">
+      <c r="G75">
         <v>9.33</v>
       </c>
-      <c r="H75" s="1">
+      <c r="H75">
         <v>9.41</v>
       </c>
-      <c r="I75" s="1">
+      <c r="I75">
         <v>9.24</v>
       </c>
-      <c r="J75" s="1">
+      <c r="J75">
         <v>11.09</v>
       </c>
-      <c r="K75" s="1">
+      <c r="K75">
         <v>12.12</v>
       </c>
-      <c r="L75" s="1">
+      <c r="L75">
         <v>13.25</v>
       </c>
-      <c r="M75" s="1">
+      <c r="M75">
         <v>14.58</v>
       </c>
-      <c r="N75" s="1">
+      <c r="N75">
         <v>16.48</v>
       </c>
     </row>
@@ -8066,43 +8072,43 @@
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76">
         <v>11.5</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76">
         <v>11.17</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76">
         <v>10.46</v>
       </c>
-      <c r="E76" s="1">
+      <c r="E76">
         <v>10.19</v>
       </c>
-      <c r="F76" s="1">
+      <c r="F76">
         <v>9.5299999999999994</v>
       </c>
-      <c r="G76" s="1">
+      <c r="G76">
         <v>9.3000000000000007</v>
       </c>
-      <c r="H76" s="1">
+      <c r="H76">
         <v>9.36</v>
       </c>
-      <c r="I76" s="1">
+      <c r="I76">
         <v>9.2100000000000009</v>
       </c>
-      <c r="J76" s="1">
+      <c r="J76">
         <v>11.04</v>
       </c>
-      <c r="K76" s="1">
+      <c r="K76">
         <v>12.06</v>
       </c>
-      <c r="L76" s="1">
+      <c r="L76">
         <v>13.18</v>
       </c>
-      <c r="M76" s="1">
+      <c r="M76">
         <v>14.49</v>
       </c>
-      <c r="N76" s="1">
+      <c r="N76">
         <v>16.399999999999999</v>
       </c>
     </row>
@@ -8110,43 +8116,43 @@
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77">
         <v>11.45</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77">
         <v>11.12</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77">
         <v>10.42</v>
       </c>
-      <c r="E77" s="1">
+      <c r="E77">
         <v>10.14</v>
       </c>
-      <c r="F77" s="1">
+      <c r="F77">
         <v>9.49</v>
       </c>
-      <c r="G77" s="1">
+      <c r="G77">
         <v>9.26</v>
       </c>
-      <c r="H77" s="1">
+      <c r="H77">
         <v>9.31</v>
       </c>
-      <c r="I77" s="1">
+      <c r="I77">
         <v>9.17</v>
       </c>
-      <c r="J77" s="1">
+      <c r="J77">
         <v>11.01</v>
       </c>
-      <c r="K77" s="1">
+      <c r="K77">
         <v>12.01</v>
       </c>
-      <c r="L77" s="1">
+      <c r="L77">
         <v>13.13</v>
       </c>
-      <c r="M77" s="1">
+      <c r="M77">
         <v>14.42</v>
       </c>
-      <c r="N77" s="1">
+      <c r="N77">
         <v>16.32</v>
       </c>
     </row>
@@ -8154,43 +8160,43 @@
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78">
         <v>11.39</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78">
         <v>11.07</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78">
         <v>10.37</v>
       </c>
-      <c r="E78" s="1">
+      <c r="E78">
         <v>10.1</v>
       </c>
-      <c r="F78" s="1">
+      <c r="F78">
         <v>9.4499999999999993</v>
       </c>
-      <c r="G78" s="1">
+      <c r="G78">
         <v>9.2200000000000006</v>
       </c>
-      <c r="H78" s="1">
+      <c r="H78">
         <v>9.27</v>
       </c>
-      <c r="I78" s="1">
+      <c r="I78">
         <v>9.14</v>
       </c>
-      <c r="J78" s="1">
+      <c r="J78">
         <v>10.56</v>
       </c>
-      <c r="K78" s="1">
+      <c r="K78">
         <v>11.56</v>
       </c>
-      <c r="L78" s="1">
+      <c r="L78">
         <v>13.06</v>
       </c>
-      <c r="M78" s="1">
+      <c r="M78">
         <v>14.34</v>
       </c>
-      <c r="N78" s="1">
+      <c r="N78">
         <v>16.239999999999998</v>
       </c>
     </row>
@@ -9118,7 +9124,10 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="B3:N78">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThanOrEqual">
       <formula>B2</formula>
     </cfRule>
   </conditionalFormatting>
